--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Dropbox\FYP_WhitePinnacle\Project Management\Project Management\Metrics\Schedule Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Action</t>
   </si>
@@ -61,22 +61,100 @@
 Add the number of days gained back to the buffer days</t>
   </si>
   <si>
-    <t xml:space="preserve">Iteration </t>
+    <t>Iteration</t>
   </si>
   <si>
-    <t>Estimated Days</t>
+    <t>Planned Start Date</t>
   </si>
   <si>
-    <t>Actual Days</t>
+    <t>Planned End Date</t>
   </si>
   <si>
-    <t>Schedule Metrics</t>
+    <t>Milestone included</t>
+  </si>
+  <si>
+    <t>Actual Start Date</t>
+  </si>
+  <si>
+    <t>Actual End Date</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Iteration 6</t>
+  </si>
+  <si>
+    <t>Iteration 7</t>
+  </si>
+  <si>
+    <t>Iteration 8</t>
+  </si>
+  <si>
+    <t>Iteration 9</t>
+  </si>
+  <si>
+    <t>Iteration 10</t>
+  </si>
+  <si>
+    <t>Iteration 11</t>
+  </si>
+  <si>
+    <t>Iteration 12</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Iteration 13</t>
+  </si>
+  <si>
+    <t>Iteration 14</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Iteration 15</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Duration (Days)</t>
+  </si>
+  <si>
+    <t>Actual Duration (Days)</t>
+  </si>
+  <si>
+    <t>Schedule Metrics Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,17 +338,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -299,7 +377,409 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -310,6 +790,2282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" b="1"/>
+              <a:t>Gannt Chart for Planned</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" b="1" baseline="0"/>
+              <a:t> Iterations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Schedule Metrics Tracking'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Schedule Metrics Tracking'!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42058</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Schedule Metrics'!$B$7:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>Iteration 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Iteration 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Iteration 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Iteration 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Iteration 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Iteration 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Iteration 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Iteration 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Iteration 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Iteration 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Iteration 11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Iteration 12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Iteration 13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Iteration 14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Iteration 15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Schedule Metrics Tracking'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration (Days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Schedule Metrics Tracking'!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Schedule Metrics'!$B$7:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>Iteration 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Iteration 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Iteration 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Iteration 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Iteration 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Iteration 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Iteration 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Iteration 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Iteration 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Iteration 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Iteration 11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Iteration 12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Iteration 13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Iteration 14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Iteration 15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="1756753648"/>
+        <c:axId val="1756753104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1756753648"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756753104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756753104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="41904"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756753648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="14"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" b="1"/>
+              <a:t>Gannt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" b="1" baseline="0"/>
+              <a:t> Chart for Actual Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Schedule Metrics Tracking'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Schedule Metrics Tracking'!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42058</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Schedule Metrics'!$B$7:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>Iteration 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Iteration 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Iteration 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Iteration 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Iteration 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Iteration 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Iteration 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Iteration 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Iteration 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Iteration 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Iteration 11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Iteration 12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Iteration 13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Iteration 14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Iteration 15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Schedule Metrics Tracking'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration (Days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Schedule Metrics Tracking'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Schedule Metrics'!$B$7:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>Iteration 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Iteration 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Iteration 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Iteration 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Iteration 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Iteration 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Iteration 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Iteration 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Iteration 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Iteration 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Iteration 11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Iteration 12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Iteration 13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Iteration 14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Iteration 15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="1756749840"/>
+        <c:axId val="1756751472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1756749840"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756751472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756751472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="41904"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756749840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="14"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K18" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B3:K18"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Iteration" dataDxfId="9"/>
+    <tableColumn id="2" name="Planned Start Date" dataDxfId="8">
+      <calculatedColumnFormula>D3+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Planned End Date" dataDxfId="7">
+      <calculatedColumnFormula>C4+13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Duration (Days)" dataDxfId="6">
+      <calculatedColumnFormula>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Milestone included" dataDxfId="5"/>
+    <tableColumn id="5" name="Actual Start Date" dataDxfId="4"/>
+    <tableColumn id="7" name="Actual End Date" dataDxfId="3"/>
+    <tableColumn id="8" name="Actual Duration (Days)" dataDxfId="2"/>
+    <tableColumn id="10" name="Schedule Metrics Score" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Action" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,59 +3355,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12">
+        <v>41904</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4+13</f>
+        <v>41917</v>
+      </c>
+      <c r="E4" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12">
+        <v>41904</v>
+      </c>
+      <c r="H4" s="12">
+        <v>41917</v>
+      </c>
+      <c r="I4" s="10">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12">
+        <f>D4+1</f>
+        <v>41918</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D18" si="0">C5+13</f>
+        <v>41931</v>
+      </c>
+      <c r="E5" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="D3" s="12">
+      <c r="F5" s="10"/>
+      <c r="G5" s="12">
+        <f>H4+1</f>
+        <v>41918</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5" si="1">G5+13</f>
+        <v>41931</v>
+      </c>
+      <c r="I5" s="10">
         <v>14</v>
       </c>
-      <c r="E3" s="13">
-        <f>C3/D3</f>
+      <c r="J5" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:C18" si="2">D5+1</f>
+        <v>41932</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>41945</v>
+      </c>
+      <c r="E6" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="2"/>
+        <v>41946</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>41959</v>
+      </c>
+      <c r="E7" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="2"/>
+        <v>41960</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>41973</v>
+      </c>
+      <c r="E8" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="2"/>
+        <v>41974</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>41987</v>
+      </c>
+      <c r="E9" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="2"/>
+        <v>41988</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>42001</v>
+      </c>
+      <c r="E10" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="2"/>
+        <v>42002</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>42015</v>
+      </c>
+      <c r="E11" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="2"/>
+        <v>42016</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>42029</v>
+      </c>
+      <c r="E12" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="2"/>
+        <v>42030</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>42043</v>
+      </c>
+      <c r="E13" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="2"/>
+        <v>42044</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>42057</v>
+      </c>
+      <c r="E14" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="2"/>
+        <v>42058</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>42071</v>
+      </c>
+      <c r="E15" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>42072</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>42085</v>
+      </c>
+      <c r="E16" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>42086</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>42099</v>
+      </c>
+      <c r="E17" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>42100</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>42113</v>
+      </c>
+      <c r="E18" s="10">
+        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
+        <v>14</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
+      <c r="K18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Dropbox\FYP_WhitePinnacle\Project Management\Project Management\Metrics\Schedule Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Metrics\Schedule Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Action</t>
   </si>
@@ -1172,11 +1172,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1756753648"/>
-        <c:axId val="1756753104"/>
+        <c:axId val="-498150384"/>
+        <c:axId val="-498142224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1756753648"/>
+        <c:axId val="-498150384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1219,7 +1219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756753104"/>
+        <c:crossAx val="-498142224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1756753104"/>
+        <c:axId val="-498142224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756753648"/>
+        <c:crossAx val="-498150384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1405,7 +1405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1623,7 +1622,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1740,11 +1739,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1756749840"/>
-        <c:axId val="1756751472"/>
+        <c:axId val="-498153104"/>
+        <c:axId val="-498152560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1756749840"/>
+        <c:axId val="-498153104"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1787,7 +1786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756751472"/>
+        <c:crossAx val="-498152560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1756751472"/>
+        <c:axId val="-498152560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1847,7 +1846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756749840"/>
+        <c:crossAx val="-498153104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1862,7 +1861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3357,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3367,7 @@
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
@@ -3463,7 +3461,7 @@
         <v>41918</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5" si="1">G5+13</f>
+        <f t="shared" ref="H5:H6" si="1">G5+13</f>
         <v>41931</v>
       </c>
       <c r="I5" s="10">
@@ -3496,16 +3494,24 @@
       <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="12">
+        <f t="shared" ref="G6" si="3">H5+1</f>
+        <v>41932</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>41945</v>
+      </c>
       <c r="I6" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J6" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
-      <c r="K6" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Action</t>
   </si>
@@ -1172,11 +1172,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-498150384"/>
-        <c:axId val="-498142224"/>
+        <c:axId val="349256960"/>
+        <c:axId val="349257504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-498150384"/>
+        <c:axId val="349256960"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1219,7 +1219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-498142224"/>
+        <c:crossAx val="349257504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-498142224"/>
+        <c:axId val="349257504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-498150384"/>
+        <c:crossAx val="349256960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1405,6 +1405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,7 +1626,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1739,11 +1740,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-498153104"/>
-        <c:axId val="-498152560"/>
+        <c:axId val="349261856"/>
+        <c:axId val="123162336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-498153104"/>
+        <c:axId val="349261856"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1786,7 +1787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-498152560"/>
+        <c:crossAx val="123162336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1794,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-498152560"/>
+        <c:axId val="123162336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1846,7 +1847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-498153104"/>
+        <c:crossAx val="349261856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1861,6 +1862,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3356,7 +3358,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3369,7 @@
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
@@ -3461,7 +3463,7 @@
         <v>41918</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5:H6" si="1">G5+13</f>
+        <f t="shared" ref="H5:H7" si="1">G5+13</f>
         <v>41931</v>
       </c>
       <c r="I5" s="10">
@@ -3495,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6" si="3">H5+1</f>
+        <f t="shared" ref="G6:G7" si="3">H5+1</f>
         <v>41932</v>
       </c>
       <c r="H6" s="12">
@@ -3532,16 +3534,24 @@
       <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="12">
+        <f t="shared" si="3"/>
+        <v>41946</v>
+      </c>
+      <c r="H7" s="12">
+        <f>G7+12</f>
+        <v>41958</v>
+      </c>
       <c r="I7" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J7" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Schedule Metrics Tracking" sheetId="12" r:id="rId1"/>
     <sheet name="Guidelines for Schedule Metrics" sheetId="11" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -915,37 +918,37 @@
                   <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41960</c:v>
+                  <c:v>41988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41974</c:v>
+                  <c:v>42002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41988</c:v>
+                  <c:v>42016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42002</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42016</c:v>
+                  <c:v>42044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42030</c:v>
+                  <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42044</c:v>
+                  <c:v>42072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42058</c:v>
+                  <c:v>42086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42072</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42086</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42100</c:v>
+                  <c:v>42128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,11 +1175,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="349256960"/>
-        <c:axId val="349257504"/>
+        <c:axId val="-813914064"/>
+        <c:axId val="-813899920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349256960"/>
+        <c:axId val="-813914064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1219,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349257504"/>
+        <c:crossAx val="-813899920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349257504"/>
+        <c:axId val="-813899920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1279,7 +1282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349256960"/>
+        <c:crossAx val="-813914064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1483,37 +1486,37 @@
                   <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41960</c:v>
+                  <c:v>41988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41974</c:v>
+                  <c:v>42002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41988</c:v>
+                  <c:v>42016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42002</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42016</c:v>
+                  <c:v>42044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42030</c:v>
+                  <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42044</c:v>
+                  <c:v>42072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42058</c:v>
+                  <c:v>42086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42072</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42086</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42100</c:v>
+                  <c:v>42128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1632,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1740,11 +1743,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="349261856"/>
-        <c:axId val="123162336"/>
+        <c:axId val="-820918912"/>
+        <c:axId val="-820905856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349261856"/>
+        <c:axId val="-820918912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1787,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123162336"/>
+        <c:crossAx val="-820905856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123162336"/>
+        <c:axId val="-820905856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1847,7 +1850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349261856"/>
+        <c:crossAx val="-820918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -3039,6 +3042,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Schedule Metrics"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3357,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3479,7 @@
         <v>41918</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5:H7" si="1">G5+13</f>
+        <f t="shared" ref="H5:H6" si="1">G5+13</f>
         <v>41931</v>
       </c>
       <c r="I5" s="10">
@@ -3558,26 +3574,30 @@
         <v>21</v>
       </c>
       <c r="C8" s="12">
-        <f t="shared" si="2"/>
-        <v>41960</v>
+        <v>41988</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>41973</v>
+        <v>42001</v>
       </c>
       <c r="E8" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="12">
+        <v>41988</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8+13+1</f>
+        <v>42002</v>
+      </c>
       <c r="I8" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J8" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -3587,11 +3607,11 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" si="2"/>
-        <v>41974</v>
+        <v>42002</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>41987</v>
+        <v>42015</v>
       </c>
       <c r="E9" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3615,11 +3635,11 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
-        <v>41988</v>
+        <v>42016</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>42001</v>
+        <v>42029</v>
       </c>
       <c r="E10" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3643,11 +3663,11 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
-        <v>42002</v>
+        <v>42030</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>42015</v>
+        <v>42043</v>
       </c>
       <c r="E11" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3671,11 +3691,11 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
-        <v>42016</v>
+        <v>42044</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>42029</v>
+        <v>42057</v>
       </c>
       <c r="E12" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3699,11 +3719,11 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
-        <v>42030</v>
+        <v>42058</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>42043</v>
+        <v>42071</v>
       </c>
       <c r="E13" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3727,11 +3747,11 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
-        <v>42044</v>
+        <v>42072</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>42057</v>
+        <v>42085</v>
       </c>
       <c r="E14" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3755,11 +3775,11 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="2"/>
-        <v>42058</v>
+        <v>42086</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>42071</v>
+        <v>42099</v>
       </c>
       <c r="E15" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3785,11 +3805,11 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="2"/>
-        <v>42072</v>
+        <v>42100</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>42085</v>
+        <v>42113</v>
       </c>
       <c r="E16" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3813,11 +3833,11 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>42099</v>
+        <v>42127</v>
       </c>
       <c r="E17" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
@@ -3843,11 +3863,11 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="2"/>
-        <v>42100</v>
+        <v>42128</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>42113</v>
+        <v>42141</v>
       </c>
       <c r="E18" s="10">
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Action</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Schedule Metrics Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delayed slightly due to debugging phase, team was unfamiliar with charts. Date/time issue. Date showed NaN. </t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1175,11 +1217,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-813914064"/>
-        <c:axId val="-813899920"/>
+        <c:axId val="-1664024672"/>
+        <c:axId val="-1380287328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-813914064"/>
+        <c:axId val="-1664024672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1222,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813899920"/>
+        <c:crossAx val="-1380287328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1230,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-813899920"/>
+        <c:axId val="-1380287328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1282,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813914064"/>
+        <c:crossAx val="-1664024672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1635,7 +1677,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1743,11 +1785,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-820918912"/>
-        <c:axId val="-820905856"/>
+        <c:axId val="-1380287872"/>
+        <c:axId val="-1380290592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-820918912"/>
+        <c:axId val="-1380287872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1790,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820905856"/>
+        <c:crossAx val="-1380290592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820905856"/>
+        <c:axId val="-1380290592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1850,7 +1892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820918912"/>
+        <c:crossAx val="-1380287872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1932,6 +1974,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Schedule Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Schedule Metrics Tracking'!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1380286240"/>
+        <c:axId val="-1380282976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1380286240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1380282976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1380282976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1380286240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -1965,6 +2356,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2971,6 +3402,508 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3041,6 +3974,100 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>149370</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>21648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18876818" y="4572001"/>
+          <a:ext cx="16774824" cy="4723532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="8000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:alpha val="13000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3058,27 +4085,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K18" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B3:K18"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Iteration" dataDxfId="9"/>
-    <tableColumn id="2" name="Planned Start Date" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:L18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B3:L18"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Iteration" dataDxfId="10"/>
+    <tableColumn id="2" name="Planned Start Date" dataDxfId="9">
       <calculatedColumnFormula>D3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Planned End Date" dataDxfId="7">
+    <tableColumn id="3" name="Planned End Date" dataDxfId="8">
       <calculatedColumnFormula>C4+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Duration (Days)" dataDxfId="6">
+    <tableColumn id="6" name="Duration (Days)" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Milestone included" dataDxfId="5"/>
-    <tableColumn id="5" name="Actual Start Date" dataDxfId="4"/>
-    <tableColumn id="7" name="Actual End Date" dataDxfId="3"/>
-    <tableColumn id="8" name="Actual Duration (Days)" dataDxfId="2"/>
-    <tableColumn id="10" name="Schedule Metrics Score" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="4" name="Milestone included" dataDxfId="6"/>
+    <tableColumn id="5" name="Actual Start Date" dataDxfId="5"/>
+    <tableColumn id="7" name="Actual End Date" dataDxfId="4"/>
+    <tableColumn id="8" name="Actual Duration (Days)" dataDxfId="3"/>
+    <tableColumn id="10" name="Schedule Metrics Score" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Action" dataDxfId="0"/>
+    <tableColumn id="9" name="Action" dataDxfId="1"/>
+    <tableColumn id="11" name="Remarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3371,10 +4399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,10 +4417,11 @@
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="103.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -3423,8 +4452,11 @@
       <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="L3" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -3456,8 +4488,9 @@
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
@@ -3492,8 +4525,9 @@
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -3530,8 +4564,9 @@
       <c r="K6" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3568,8 +4603,9 @@
       <c r="K7" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
@@ -3599,9 +4635,14 @@
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
@@ -3618,18 +4659,27 @@
         <v>14</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9" si="4">H8+1</f>
+        <v>42003</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" ref="H9" si="5">G9+13</f>
+        <v>42016</v>
+      </c>
       <c r="I9" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
@@ -3651,13 +4701,11 @@
       <c r="I10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3679,13 +4727,11 @@
       <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -3701,19 +4747,19 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
@@ -3735,13 +4781,11 @@
       <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3763,13 +4807,11 @@
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
@@ -3785,21 +4827,17 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J15" s="11"/>
       <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
@@ -3821,13 +4859,11 @@
       <c r="I16" s="10">
         <v>1</v>
       </c>
-      <c r="J16" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
+      <c r="J16" s="11"/>
       <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
@@ -3856,8 +4892,9 @@
         <v>14</v>
       </c>
       <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -3886,6 +4923,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Action</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>Schedule Metrics Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delayed slightly due to debugging phase, team was unfamiliar with charts. Date/time issue. Date showed NaN. </t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -386,43 +380,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -1217,11 +1175,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1664024672"/>
-        <c:axId val="-1380287328"/>
+        <c:axId val="-813914064"/>
+        <c:axId val="-813899920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1664024672"/>
+        <c:axId val="-813914064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1264,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380287328"/>
+        <c:crossAx val="-813899920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1380287328"/>
+        <c:axId val="-813899920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1324,7 +1282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664024672"/>
+        <c:crossAx val="-813914064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1677,7 +1635,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1785,11 +1743,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1380287872"/>
-        <c:axId val="-1380290592"/>
+        <c:axId val="-820918912"/>
+        <c:axId val="-820905856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1380287872"/>
+        <c:axId val="-820918912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1832,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380290592"/>
+        <c:crossAx val="-820905856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1840,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1380290592"/>
+        <c:axId val="-820905856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1892,7 +1850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380287872"/>
+        <c:crossAx val="-820918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1974,355 +1932,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG" sz="3600">
-                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Schedule Metrics</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$J$4:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0769230769230769</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1380286240"/>
-        <c:axId val="-1380282976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1380286240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1380282976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1380282976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1380286240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -2356,46 +1965,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3402,508 +2971,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3974,100 +3041,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>84753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>149370</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>21648</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18876818" y="4572001"/>
-          <a:ext cx="16774824" cy="4723532"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:alpha val="8000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:alpha val="13000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4085,28 +3058,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:L18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B3:L18"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Iteration" dataDxfId="10"/>
-    <tableColumn id="2" name="Planned Start Date" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K18" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B3:K18"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Iteration" dataDxfId="9"/>
+    <tableColumn id="2" name="Planned Start Date" dataDxfId="8">
       <calculatedColumnFormula>D3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Planned End Date" dataDxfId="8">
+    <tableColumn id="3" name="Planned End Date" dataDxfId="7">
       <calculatedColumnFormula>C4+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Duration (Days)" dataDxfId="7">
+    <tableColumn id="6" name="Duration (Days)" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Milestone included" dataDxfId="6"/>
-    <tableColumn id="5" name="Actual Start Date" dataDxfId="5"/>
-    <tableColumn id="7" name="Actual End Date" dataDxfId="4"/>
-    <tableColumn id="8" name="Actual Duration (Days)" dataDxfId="3"/>
-    <tableColumn id="10" name="Schedule Metrics Score" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="4" name="Milestone included" dataDxfId="5"/>
+    <tableColumn id="5" name="Actual Start Date" dataDxfId="4"/>
+    <tableColumn id="7" name="Actual End Date" dataDxfId="3"/>
+    <tableColumn id="8" name="Actual Duration (Days)" dataDxfId="2"/>
+    <tableColumn id="10" name="Schedule Metrics Score" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Action" dataDxfId="1"/>
-    <tableColumn id="11" name="Remarks" dataDxfId="0"/>
+    <tableColumn id="9" name="Action" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4399,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,11 +3389,10 @@
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="103.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -4452,11 +3423,8 @@
       <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -4488,9 +3456,8 @@
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4525,9 +3492,8 @@
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4564,9 +3530,8 @@
       <c r="K6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4603,9 +3568,8 @@
       <c r="K7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
@@ -4635,14 +3599,9 @@
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
@@ -4659,27 +3618,18 @@
         <v>14</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="12">
-        <f t="shared" ref="G9" si="4">H8+1</f>
-        <v>42003</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" ref="H9" si="5">G9+13</f>
-        <v>42016</v>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J9" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
@@ -4701,11 +3651,13 @@
       <c r="I10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
@@ -4727,11 +3679,13 @@
       <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -4747,19 +3701,19 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
@@ -4781,11 +3735,13 @@
       <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -4807,11 +3763,13 @@
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
@@ -4827,17 +3785,21 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
@@ -4859,11 +3821,13 @@
       <c r="I16" s="10">
         <v>1</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>14</v>
+      </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
@@ -4892,9 +3856,8 @@
         <v>14</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -4923,7 +3886,6 @@
         <v>14</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Metrics Tracking" sheetId="12" r:id="rId1"/>
-    <sheet name="Guidelines for Schedule Metrics" sheetId="11" r:id="rId2"/>
+    <sheet name="Overview" sheetId="13" r:id="rId2"/>
+    <sheet name="Guidelines for Schedule Metrics" sheetId="11" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>
@@ -156,6 +157,15 @@
   <si>
     <t>Remarks</t>
   </si>
+  <si>
+    <t>Planned Schedule</t>
+  </si>
+  <si>
+    <t>Actual Schedule</t>
+  </si>
+  <si>
+    <t>UT2, Deployment</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +230,25 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bebas Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +261,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -295,6 +334,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -322,7 +465,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,6 +501,62 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -826,6 +1025,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF003366"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1217,11 +1421,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1664024672"/>
-        <c:axId val="-1380287328"/>
+        <c:axId val="-1359126720"/>
+        <c:axId val="-1359124000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1664024672"/>
+        <c:axId val="-1359126720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1264,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380287328"/>
+        <c:crossAx val="-1359124000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1380287328"/>
+        <c:axId val="-1359124000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1324,7 +1528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664024672"/>
+        <c:crossAx val="-1359126720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1680,7 +1884,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1785,11 +1989,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1380287872"/>
-        <c:axId val="-1380290592"/>
+        <c:axId val="-1359128896"/>
+        <c:axId val="-1359138144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1380287872"/>
+        <c:axId val="-1359128896"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1832,7 +2036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380290592"/>
+        <c:crossAx val="-1359138144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1840,7 +2044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1380290592"/>
+        <c:axId val="-1359138144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1892,7 +2096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380287872"/>
+        <c:crossAx val="-1359128896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1995,7 +2199,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2008,7 +2212,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG" sz="3600">
+              <a:rPr lang="en-SG" sz="3800">
                 <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>Schedule Metrics</a:t>
@@ -2030,7 +2234,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2133,10 +2337,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$J$4:$J$9</c:f>
+              <c:f>'Schedule Metrics Tracking'!$J$4:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2155,6 +2359,9 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2169,11 +2376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1380286240"/>
-        <c:axId val="-1380282976"/>
+        <c:axId val="-1359129440"/>
+        <c:axId val="-1359126176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1380286240"/>
+        <c:axId val="-1359129440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380282976"/>
+        <c:crossAx val="-1359126176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1380282976"/>
+        <c:axId val="-1359126176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380286240"/>
+        <c:crossAx val="-1359129440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,11 +4867,11 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12">
-        <f t="shared" ref="G9" si="4">H8+1</f>
+        <f t="shared" ref="G9:G10" si="4">H8+1</f>
         <v>42003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9" si="5">G9+13</f>
+        <f t="shared" ref="H9:H10" si="5">G9+13</f>
         <v>42016</v>
       </c>
       <c r="I9" s="10">
@@ -4695,14 +4902,26 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>42017</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="5"/>
+        <v>42030</v>
+      </c>
       <c r="I10" s="10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="11">
         <v>1</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4935,6 +5154,2922 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:CV31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CW24" sqref="CW24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="44" width="1.7109375" style="1" customWidth="1"/>
+    <col min="45" max="100" width="1.7109375" style="15" customWidth="1"/>
+    <col min="101" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="36"/>
+    </row>
+    <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="21"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="21"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="21"/>
+      <c r="BS3" s="21"/>
+      <c r="BT3" s="21"/>
+      <c r="BU3" s="21"/>
+      <c r="BV3" s="21"/>
+      <c r="BW3" s="21"/>
+      <c r="BX3" s="21"/>
+      <c r="BY3" s="21"/>
+      <c r="BZ3" s="21"/>
+      <c r="CA3" s="21"/>
+      <c r="CB3" s="21"/>
+      <c r="CC3" s="21"/>
+      <c r="CD3" s="21"/>
+      <c r="CE3" s="21"/>
+      <c r="CF3" s="21"/>
+      <c r="CG3" s="21"/>
+      <c r="CH3" s="21"/>
+      <c r="CI3" s="21"/>
+      <c r="CJ3" s="21"/>
+      <c r="CK3" s="21"/>
+      <c r="CL3" s="21"/>
+      <c r="CM3" s="21"/>
+      <c r="CN3" s="21"/>
+      <c r="CO3" s="22"/>
+    </row>
+    <row r="4" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="19"/>
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="20"/>
+    </row>
+    <row r="5" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="37">
+        <v>2</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
+      <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="19"/>
+      <c r="CN5" s="19"/>
+      <c r="CO5" s="20"/>
+    </row>
+    <row r="6" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="37">
+        <v>3</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" s="21"/>
+      <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
+      <c r="CM6" s="21"/>
+      <c r="CN6" s="21"/>
+      <c r="CO6" s="22"/>
+    </row>
+    <row r="7" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="37">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="22"/>
+    </row>
+    <row r="8" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="37">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
+      <c r="CF8" s="21"/>
+      <c r="CG8" s="21"/>
+      <c r="CH8" s="21"/>
+      <c r="CI8" s="21"/>
+      <c r="CJ8" s="21"/>
+      <c r="CK8" s="21"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="22"/>
+    </row>
+    <row r="9" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="37">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24"/>
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24"/>
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="24"/>
+      <c r="CM9" s="24"/>
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="25"/>
+    </row>
+    <row r="10" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="37">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="32"/>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="32"/>
+      <c r="CL10" s="32"/>
+      <c r="CM10" s="32"/>
+      <c r="CN10" s="32"/>
+      <c r="CO10" s="33"/>
+      <c r="CP10" s="14"/>
+      <c r="CQ10" s="14"/>
+      <c r="CR10" s="14"/>
+      <c r="CS10" s="14"/>
+      <c r="CT10" s="14"/>
+      <c r="CU10" s="14"/>
+      <c r="CV10" s="14"/>
+    </row>
+    <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="37">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="21"/>
+      <c r="CI11" s="21"/>
+      <c r="CJ11" s="21"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="22"/>
+    </row>
+    <row r="12" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="37">
+        <v>9</v>
+      </c>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="39"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" s="21"/>
+      <c r="CI12" s="21"/>
+      <c r="CJ12" s="21"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
+      <c r="CM12" s="21"/>
+      <c r="CN12" s="21"/>
+      <c r="CO12" s="22"/>
+    </row>
+    <row r="13" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="37">
+        <v>10</v>
+      </c>
+      <c r="BO13" s="38"/>
+      <c r="BP13" s="38"/>
+      <c r="BQ13" s="38"/>
+      <c r="BR13" s="38"/>
+      <c r="BS13" s="38"/>
+      <c r="BT13" s="39"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="21"/>
+      <c r="CF13" s="21"/>
+      <c r="CG13" s="21"/>
+      <c r="CH13" s="21"/>
+      <c r="CI13" s="21"/>
+      <c r="CJ13" s="21"/>
+      <c r="CK13" s="21"/>
+      <c r="CL13" s="21"/>
+      <c r="CM13" s="21"/>
+      <c r="CN13" s="21"/>
+      <c r="CO13" s="22"/>
+    </row>
+    <row r="14" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="37">
+        <v>11</v>
+      </c>
+      <c r="BV14" s="38"/>
+      <c r="BW14" s="38"/>
+      <c r="BX14" s="38"/>
+      <c r="BY14" s="38"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="39"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="22"/>
+    </row>
+    <row r="15" spans="2:100" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="21"/>
+      <c r="BM15" s="21"/>
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="21"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="21"/>
+      <c r="BU15" s="21"/>
+      <c r="BV15" s="21"/>
+      <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="21"/>
+      <c r="BZ15" s="21"/>
+      <c r="CA15" s="21"/>
+      <c r="CB15" s="21"/>
+      <c r="CC15" s="21"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="21"/>
+      <c r="CF15" s="21"/>
+      <c r="CG15" s="21"/>
+      <c r="CH15" s="21"/>
+      <c r="CI15" s="21"/>
+      <c r="CJ15" s="21"/>
+      <c r="CK15" s="21"/>
+      <c r="CL15" s="21"/>
+      <c r="CM15" s="21"/>
+      <c r="CN15" s="21"/>
+      <c r="CO15" s="22"/>
+    </row>
+    <row r="16" spans="2:100" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
+      <c r="BV16" s="28"/>
+      <c r="BW16" s="28"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="28"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="28"/>
+      <c r="CB16" s="28"/>
+      <c r="CC16" s="28"/>
+      <c r="CD16" s="28"/>
+      <c r="CE16" s="28"/>
+      <c r="CF16" s="28"/>
+      <c r="CG16" s="28"/>
+      <c r="CH16" s="28"/>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
+      <c r="CL16" s="28"/>
+      <c r="CM16" s="28"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="31"/>
+    </row>
+    <row r="17" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BL17" s="21"/>
+      <c r="BM17" s="21"/>
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="21"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21"/>
+      <c r="BR17" s="21"/>
+      <c r="BS17" s="21"/>
+      <c r="BT17" s="21"/>
+      <c r="BU17" s="21"/>
+      <c r="BV17" s="21"/>
+      <c r="BW17" s="21"/>
+      <c r="BX17" s="21"/>
+      <c r="BY17" s="21"/>
+      <c r="BZ17" s="21"/>
+      <c r="CA17" s="21"/>
+      <c r="CB17" s="21"/>
+      <c r="CC17" s="21"/>
+      <c r="CD17" s="21"/>
+      <c r="CE17" s="21"/>
+      <c r="CF17" s="21"/>
+      <c r="CG17" s="21"/>
+      <c r="CH17" s="21"/>
+      <c r="CI17" s="21"/>
+      <c r="CJ17" s="21"/>
+      <c r="CK17" s="21"/>
+      <c r="CL17" s="21"/>
+      <c r="CM17" s="21"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="22"/>
+    </row>
+    <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
+      <c r="B18" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="34"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="34"/>
+      <c r="BV18" s="34"/>
+      <c r="BW18" s="34"/>
+      <c r="BX18" s="34"/>
+      <c r="BY18" s="34"/>
+      <c r="BZ18" s="34"/>
+      <c r="CA18" s="34"/>
+      <c r="CB18" s="34"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="34"/>
+      <c r="CE18" s="34"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="34"/>
+      <c r="CK18" s="34"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="34"/>
+      <c r="CN18" s="34"/>
+      <c r="CO18" s="36"/>
+    </row>
+    <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="22"/>
+    </row>
+    <row r="20" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="19"/>
+      <c r="BW20" s="19"/>
+      <c r="BX20" s="19"/>
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="19"/>
+      <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="21"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="22"/>
+    </row>
+    <row r="21" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="37">
+        <v>2</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="19"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="19"/>
+      <c r="BM21" s="19"/>
+      <c r="BN21" s="19"/>
+      <c r="BO21" s="19"/>
+      <c r="BP21" s="19"/>
+      <c r="BQ21" s="19"/>
+      <c r="BR21" s="19"/>
+      <c r="BS21" s="19"/>
+      <c r="BT21" s="19"/>
+      <c r="BU21" s="19"/>
+      <c r="BV21" s="19"/>
+      <c r="BW21" s="19"/>
+      <c r="BX21" s="19"/>
+      <c r="BY21" s="19"/>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="19"/>
+      <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
+      <c r="CD21" s="21"/>
+      <c r="CE21" s="21"/>
+      <c r="CF21" s="21"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" s="21"/>
+      <c r="CI21" s="21"/>
+      <c r="CJ21" s="21"/>
+      <c r="CK21" s="21"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="22"/>
+    </row>
+    <row r="22" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="37">
+        <v>3</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="21"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
+      <c r="AW22" s="21"/>
+      <c r="AX22" s="21"/>
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="21"/>
+      <c r="BA22" s="21"/>
+      <c r="BB22" s="21"/>
+      <c r="BC22" s="21"/>
+      <c r="BD22" s="21"/>
+      <c r="BE22" s="21"/>
+      <c r="BF22" s="21"/>
+      <c r="BG22" s="21"/>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
+      <c r="BL22" s="21"/>
+      <c r="BM22" s="21"/>
+      <c r="BN22" s="21"/>
+      <c r="BO22" s="21"/>
+      <c r="BP22" s="21"/>
+      <c r="BQ22" s="21"/>
+      <c r="BR22" s="21"/>
+      <c r="BS22" s="21"/>
+      <c r="BT22" s="21"/>
+      <c r="BU22" s="21"/>
+      <c r="BV22" s="21"/>
+      <c r="BW22" s="21"/>
+      <c r="BX22" s="21"/>
+      <c r="BY22" s="21"/>
+      <c r="BZ22" s="21"/>
+      <c r="CA22" s="21"/>
+      <c r="CB22" s="21"/>
+      <c r="CC22" s="21"/>
+      <c r="CD22" s="21"/>
+      <c r="CE22" s="21"/>
+      <c r="CF22" s="21"/>
+      <c r="CG22" s="21"/>
+      <c r="CH22" s="21"/>
+      <c r="CI22" s="21"/>
+      <c r="CJ22" s="21"/>
+      <c r="CK22" s="21"/>
+      <c r="CL22" s="21"/>
+      <c r="CM22" s="21"/>
+      <c r="CN22" s="21"/>
+      <c r="CO22" s="22"/>
+    </row>
+    <row r="23" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="37">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="21"/>
+      <c r="BM23" s="21"/>
+      <c r="BN23" s="21"/>
+      <c r="BO23" s="21"/>
+      <c r="BP23" s="21"/>
+      <c r="BQ23" s="21"/>
+      <c r="BR23" s="21"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="21"/>
+      <c r="BU23" s="21"/>
+      <c r="BV23" s="21"/>
+      <c r="BW23" s="21"/>
+      <c r="BX23" s="21"/>
+      <c r="BY23" s="21"/>
+      <c r="BZ23" s="21"/>
+      <c r="CA23" s="21"/>
+      <c r="CB23" s="21"/>
+      <c r="CC23" s="21"/>
+      <c r="CD23" s="21"/>
+      <c r="CE23" s="21"/>
+      <c r="CF23" s="21"/>
+      <c r="CG23" s="21"/>
+      <c r="CH23" s="21"/>
+      <c r="CI23" s="21"/>
+      <c r="CJ23" s="21"/>
+      <c r="CK23" s="21"/>
+      <c r="CL23" s="21"/>
+      <c r="CM23" s="21"/>
+      <c r="CN23" s="21"/>
+      <c r="CO23" s="22"/>
+    </row>
+    <row r="24" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="37">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="21"/>
+      <c r="BM24" s="21"/>
+      <c r="BN24" s="21"/>
+      <c r="BO24" s="21"/>
+      <c r="BP24" s="21"/>
+      <c r="BQ24" s="21"/>
+      <c r="BR24" s="21"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="21"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="21"/>
+      <c r="BW24" s="21"/>
+      <c r="BX24" s="21"/>
+      <c r="BY24" s="21"/>
+      <c r="BZ24" s="21"/>
+      <c r="CA24" s="21"/>
+      <c r="CB24" s="21"/>
+      <c r="CC24" s="21"/>
+      <c r="CD24" s="21"/>
+      <c r="CE24" s="21"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
+      <c r="CI24" s="21"/>
+      <c r="CJ24" s="21"/>
+      <c r="CK24" s="21"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CN24" s="21"/>
+      <c r="CO24" s="22"/>
+    </row>
+    <row r="25" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="37">
+        <v>6</v>
+      </c>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="21"/>
+      <c r="BM25" s="21"/>
+      <c r="BN25" s="21"/>
+      <c r="BO25" s="21"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="21"/>
+      <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
+      <c r="BY25" s="21"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="21"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
+      <c r="CK25" s="21"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CN25" s="21"/>
+      <c r="CO25" s="22"/>
+    </row>
+    <row r="26" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="37">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="21"/>
+      <c r="BA26" s="21"/>
+      <c r="BB26" s="21"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="21"/>
+      <c r="BF26" s="21"/>
+      <c r="BG26" s="21"/>
+      <c r="BH26" s="21"/>
+      <c r="BI26" s="21"/>
+      <c r="BJ26" s="21"/>
+      <c r="BK26" s="21"/>
+      <c r="BL26" s="21"/>
+      <c r="BM26" s="21"/>
+      <c r="BN26" s="21"/>
+      <c r="BO26" s="21"/>
+      <c r="BP26" s="21"/>
+      <c r="BQ26" s="21"/>
+      <c r="BR26" s="21"/>
+      <c r="BS26" s="21"/>
+      <c r="BT26" s="21"/>
+      <c r="BU26" s="21"/>
+      <c r="BV26" s="21"/>
+      <c r="BW26" s="21"/>
+      <c r="BX26" s="21"/>
+      <c r="BY26" s="21"/>
+      <c r="BZ26" s="21"/>
+      <c r="CA26" s="21"/>
+      <c r="CB26" s="21"/>
+      <c r="CC26" s="21"/>
+      <c r="CD26" s="21"/>
+      <c r="CE26" s="21"/>
+      <c r="CF26" s="21"/>
+      <c r="CG26" s="21"/>
+      <c r="CH26" s="21"/>
+      <c r="CI26" s="21"/>
+      <c r="CJ26" s="21"/>
+      <c r="CK26" s="21"/>
+      <c r="CL26" s="21"/>
+      <c r="CM26" s="21"/>
+      <c r="CN26" s="21"/>
+      <c r="CO26" s="22"/>
+    </row>
+    <row r="27" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21"/>
+      <c r="BA27" s="21"/>
+      <c r="BB27" s="21"/>
+      <c r="BC27" s="21"/>
+      <c r="BD27" s="21"/>
+      <c r="BE27" s="21"/>
+      <c r="BF27" s="21"/>
+      <c r="BG27" s="21"/>
+      <c r="BH27" s="21"/>
+      <c r="BI27" s="21"/>
+      <c r="BJ27" s="21"/>
+      <c r="BK27" s="21"/>
+      <c r="BL27" s="21"/>
+      <c r="BM27" s="21"/>
+      <c r="BN27" s="21"/>
+      <c r="BO27" s="21"/>
+      <c r="BP27" s="21"/>
+      <c r="BQ27" s="21"/>
+      <c r="BR27" s="21"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="21"/>
+      <c r="BU27" s="21"/>
+      <c r="BV27" s="21"/>
+      <c r="BW27" s="21"/>
+      <c r="BX27" s="21"/>
+      <c r="BY27" s="21"/>
+      <c r="BZ27" s="21"/>
+      <c r="CA27" s="21"/>
+      <c r="CB27" s="21"/>
+      <c r="CC27" s="21"/>
+      <c r="CD27" s="21"/>
+      <c r="CE27" s="21"/>
+      <c r="CF27" s="21"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" s="21"/>
+      <c r="CI27" s="21"/>
+      <c r="CJ27" s="21"/>
+      <c r="CK27" s="21"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CN27" s="21"/>
+      <c r="CO27" s="22"/>
+    </row>
+    <row r="28" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="21"/>
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="21"/>
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="21"/>
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="21"/>
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="21"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="21"/>
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="21"/>
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="21"/>
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21"/>
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21"/>
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="22"/>
+    </row>
+    <row r="29" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="21"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="21"/>
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="21"/>
+      <c r="BG29" s="21"/>
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="21"/>
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="21"/>
+      <c r="BM29" s="21"/>
+      <c r="BN29" s="21"/>
+      <c r="BO29" s="21"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="21"/>
+      <c r="BR29" s="21"/>
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="21"/>
+      <c r="BW29" s="21"/>
+      <c r="BX29" s="21"/>
+      <c r="BY29" s="21"/>
+      <c r="BZ29" s="21"/>
+      <c r="CA29" s="21"/>
+      <c r="CB29" s="21"/>
+      <c r="CC29" s="21"/>
+      <c r="CD29" s="21"/>
+      <c r="CE29" s="21"/>
+      <c r="CF29" s="21"/>
+      <c r="CG29" s="21"/>
+      <c r="CH29" s="21"/>
+      <c r="CI29" s="21"/>
+      <c r="CJ29" s="21"/>
+      <c r="CK29" s="21"/>
+      <c r="CL29" s="21"/>
+      <c r="CM29" s="21"/>
+      <c r="CN29" s="21"/>
+      <c r="CO29" s="22"/>
+    </row>
+    <row r="30" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="21"/>
+      <c r="AT30" s="21"/>
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="21"/>
+      <c r="AX30" s="21"/>
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
+      <c r="BA30" s="21"/>
+      <c r="BB30" s="21"/>
+      <c r="BC30" s="21"/>
+      <c r="BD30" s="21"/>
+      <c r="BE30" s="21"/>
+      <c r="BF30" s="21"/>
+      <c r="BG30" s="21"/>
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="21"/>
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="21"/>
+      <c r="BM30" s="21"/>
+      <c r="BN30" s="21"/>
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="21"/>
+      <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
+      <c r="BY30" s="21"/>
+      <c r="BZ30" s="21"/>
+      <c r="CA30" s="21"/>
+      <c r="CB30" s="21"/>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="21"/>
+      <c r="CE30" s="21"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="22"/>
+    </row>
+    <row r="31" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="28"/>
+      <c r="AX31" s="28"/>
+      <c r="AY31" s="28"/>
+      <c r="AZ31" s="28"/>
+      <c r="BA31" s="28"/>
+      <c r="BB31" s="28"/>
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="28"/>
+      <c r="BG31" s="28"/>
+      <c r="BH31" s="28"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="28"/>
+      <c r="BK31" s="28"/>
+      <c r="BL31" s="28"/>
+      <c r="BM31" s="28"/>
+      <c r="BN31" s="28"/>
+      <c r="BO31" s="28"/>
+      <c r="BP31" s="28"/>
+      <c r="BQ31" s="28"/>
+      <c r="BR31" s="28"/>
+      <c r="BS31" s="28"/>
+      <c r="BT31" s="28"/>
+      <c r="BU31" s="28"/>
+      <c r="BV31" s="28"/>
+      <c r="BW31" s="28"/>
+      <c r="BX31" s="28"/>
+      <c r="BY31" s="28"/>
+      <c r="BZ31" s="28"/>
+      <c r="CA31" s="28"/>
+      <c r="CB31" s="28"/>
+      <c r="CC31" s="28"/>
+      <c r="CD31" s="28"/>
+      <c r="CE31" s="28"/>
+      <c r="CF31" s="28"/>
+      <c r="CG31" s="28"/>
+      <c r="CH31" s="28"/>
+      <c r="CI31" s="28"/>
+      <c r="CJ31" s="28"/>
+      <c r="CK31" s="28"/>
+      <c r="CL31" s="28"/>
+      <c r="CM31" s="28"/>
+      <c r="CN31" s="28"/>
+      <c r="CO31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="B2:CO2"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS10:AY10"/>
+    <mergeCell ref="AZ11:BF11"/>
+    <mergeCell ref="BG12:BM12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE8:AK8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Metrics Tracking" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Action</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>UT2, Deployment</t>
+  </si>
+  <si>
+    <t>Beta Release</t>
   </si>
 </sst>
 </file>
@@ -502,9 +505,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,20 +530,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +547,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1421,11 +1424,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1359126720"/>
-        <c:axId val="-1359124000"/>
+        <c:axId val="360114848"/>
+        <c:axId val="636728432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1359126720"/>
+        <c:axId val="360114848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1468,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359124000"/>
+        <c:crossAx val="636728432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1476,7 +1479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1359124000"/>
+        <c:axId val="636728432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1528,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359126720"/>
+        <c:crossAx val="360114848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1887,7 +1890,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1989,11 +1992,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1359128896"/>
-        <c:axId val="-1359138144"/>
+        <c:axId val="636732240"/>
+        <c:axId val="636731696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1359128896"/>
+        <c:axId val="636732240"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2036,7 +2039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359138144"/>
+        <c:crossAx val="636731696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2044,7 +2047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1359138144"/>
+        <c:axId val="636731696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2096,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359128896"/>
+        <c:crossAx val="636732240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2337,10 +2340,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$J$4:$J$10</c:f>
+              <c:f>'Schedule Metrics Tracking'!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2362,6 +2365,9 @@
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2376,11 +2382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1359129440"/>
-        <c:axId val="-1359126176"/>
+        <c:axId val="636737136"/>
+        <c:axId val="636730064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1359129440"/>
+        <c:axId val="636737136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359126176"/>
+        <c:crossAx val="636730064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1359126176"/>
+        <c:axId val="636730064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359129440"/>
+        <c:crossAx val="636737136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4608,8 +4614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF49" sqref="AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4867,11 +4873,11 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G10" si="4">H8+1</f>
+        <f t="shared" ref="G9:G11" si="4">H8+1</f>
         <v>42003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H10" si="5">G9+13</f>
+        <f t="shared" ref="H9:H11" si="5">G9+13</f>
         <v>42016</v>
       </c>
       <c r="I9" s="10">
@@ -4940,14 +4946,26 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="4"/>
+        <v>42031</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="5"/>
+        <v>42044</v>
+      </c>
       <c r="I11" s="10">
+        <v>14</v>
+      </c>
+      <c r="J11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CW24" sqref="CW24"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:CO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5166,2897 +5184,2897 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="44" width="1.7109375" style="1" customWidth="1"/>
-    <col min="45" max="100" width="1.7109375" style="15" customWidth="1"/>
+    <col min="45" max="100" width="1.7109375" style="14" customWidth="1"/>
     <col min="101" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="34"/>
-      <c r="BN2" s="34"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="34"/>
-      <c r="BZ2" s="34"/>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="34"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="34"/>
-      <c r="CM2" s="34"/>
-      <c r="CN2" s="34"/>
-      <c r="CO2" s="36"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
+      <c r="CO2" s="32"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="21"/>
-      <c r="BM3" s="21"/>
-      <c r="BN3" s="21"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="21"/>
-      <c r="BS3" s="21"/>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
-      <c r="BW3" s="21"/>
-      <c r="BX3" s="21"/>
-      <c r="BY3" s="21"/>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
-      <c r="CB3" s="21"/>
-      <c r="CC3" s="21"/>
-      <c r="CD3" s="21"/>
-      <c r="CE3" s="21"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="21"/>
-      <c r="CI3" s="21"/>
-      <c r="CJ3" s="21"/>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
-      <c r="CM3" s="21"/>
-      <c r="CN3" s="21"/>
-      <c r="CO3" s="22"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="21"/>
     </row>
     <row r="4" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="37">
+      <c r="B4" s="15"/>
+      <c r="C4" s="33">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="19"/>
-      <c r="BY4" s="19"/>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19"/>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="19"/>
-      <c r="CK4" s="19"/>
-      <c r="CL4" s="19"/>
-      <c r="CM4" s="19"/>
-      <c r="CN4" s="19"/>
-      <c r="CO4" s="20"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="18"/>
+      <c r="CF4" s="18"/>
+      <c r="CG4" s="18"/>
+      <c r="CH4" s="18"/>
+      <c r="CI4" s="18"/>
+      <c r="CJ4" s="18"/>
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="18"/>
+      <c r="CM4" s="18"/>
+      <c r="CN4" s="18"/>
+      <c r="CO4" s="19"/>
     </row>
     <row r="5" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="37">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="33">
         <v>2</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19"/>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
-      <c r="CI5" s="19"/>
-      <c r="CJ5" s="19"/>
-      <c r="CK5" s="19"/>
-      <c r="CL5" s="19"/>
-      <c r="CM5" s="19"/>
-      <c r="CN5" s="19"/>
-      <c r="CO5" s="20"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="18"/>
+      <c r="CB5" s="18"/>
+      <c r="CC5" s="18"/>
+      <c r="CD5" s="18"/>
+      <c r="CE5" s="18"/>
+      <c r="CF5" s="18"/>
+      <c r="CG5" s="18"/>
+      <c r="CH5" s="18"/>
+      <c r="CI5" s="18"/>
+      <c r="CJ5" s="18"/>
+      <c r="CK5" s="18"/>
+      <c r="CL5" s="18"/>
+      <c r="CM5" s="18"/>
+      <c r="CN5" s="18"/>
+      <c r="CO5" s="19"/>
     </row>
     <row r="6" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="37">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="33">
         <v>3</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="22"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="21"/>
     </row>
     <row r="7" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="37">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="33">
         <v>4</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="22"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="21"/>
     </row>
     <row r="8" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="37">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="33">
         <v>5</v>
       </c>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="21"/>
-      <c r="BM8" s="21"/>
-      <c r="BN8" s="21"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-      <c r="BU8" s="21"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="21"/>
-      <c r="BY8" s="21"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="21"/>
-      <c r="CE8" s="21"/>
-      <c r="CF8" s="21"/>
-      <c r="CG8" s="21"/>
-      <c r="CH8" s="21"/>
-      <c r="CI8" s="21"/>
-      <c r="CJ8" s="21"/>
-      <c r="CK8" s="21"/>
-      <c r="CL8" s="21"/>
-      <c r="CM8" s="21"/>
-      <c r="CN8" s="21"/>
-      <c r="CO8" s="22"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
+      <c r="BM8" s="20"/>
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="20"/>
+      <c r="BR8" s="20"/>
+      <c r="BS8" s="20"/>
+      <c r="BT8" s="20"/>
+      <c r="BU8" s="20"/>
+      <c r="BV8" s="20"/>
+      <c r="BW8" s="20"/>
+      <c r="BX8" s="20"/>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="20"/>
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+      <c r="CC8" s="20"/>
+      <c r="CD8" s="20"/>
+      <c r="CE8" s="20"/>
+      <c r="CF8" s="20"/>
+      <c r="CG8" s="20"/>
+      <c r="CH8" s="20"/>
+      <c r="CI8" s="20"/>
+      <c r="CJ8" s="20"/>
+      <c r="CK8" s="20"/>
+      <c r="CL8" s="20"/>
+      <c r="CM8" s="20"/>
+      <c r="CN8" s="20"/>
+      <c r="CO8" s="21"/>
     </row>
     <row r="9" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="37">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="33">
         <v>6</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24"/>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="25"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23"/>
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23"/>
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23"/>
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23"/>
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23"/>
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23"/>
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23"/>
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="24"/>
     </row>
     <row r="10" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="37">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="33">
         <v>7</v>
       </c>
-      <c r="AT10" s="38"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="21"/>
-      <c r="CI10" s="32"/>
-      <c r="CJ10" s="32"/>
-      <c r="CK10" s="32"/>
-      <c r="CL10" s="32"/>
-      <c r="CM10" s="32"/>
-      <c r="CN10" s="32"/>
-      <c r="CO10" s="33"/>
-      <c r="CP10" s="14"/>
-      <c r="CQ10" s="14"/>
-      <c r="CR10" s="14"/>
-      <c r="CS10" s="14"/>
-      <c r="CT10" s="14"/>
-      <c r="CU10" s="14"/>
-      <c r="CV10" s="14"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="38"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="38"/>
+      <c r="CL10" s="38"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="38"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="37"/>
+      <c r="CQ10" s="37"/>
+      <c r="CR10" s="37"/>
+      <c r="CS10" s="37"/>
+      <c r="CT10" s="37"/>
+      <c r="CU10" s="37"/>
+      <c r="CV10" s="37"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="37">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="33">
         <v>8</v>
       </c>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="BU11" s="21"/>
-      <c r="BV11" s="21"/>
-      <c r="BW11" s="21"/>
-      <c r="BX11" s="21"/>
-      <c r="BY11" s="21"/>
-      <c r="BZ11" s="21"/>
-      <c r="CA11" s="21"/>
-      <c r="CB11" s="21"/>
-      <c r="CC11" s="21"/>
-      <c r="CD11" s="21"/>
-      <c r="CE11" s="21"/>
-      <c r="CF11" s="21"/>
-      <c r="CG11" s="21"/>
-      <c r="CH11" s="21"/>
-      <c r="CI11" s="21"/>
-      <c r="CJ11" s="21"/>
-      <c r="CK11" s="21"/>
-      <c r="CL11" s="21"/>
-      <c r="CM11" s="21"/>
-      <c r="CN11" s="21"/>
-      <c r="CO11" s="22"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="20"/>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
+      <c r="CM11" s="20"/>
+      <c r="CN11" s="20"/>
+      <c r="CO11" s="21"/>
     </row>
     <row r="12" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="37">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="33">
         <v>9</v>
       </c>
-      <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="39"/>
-      <c r="BN12" s="21"/>
-      <c r="BO12" s="21"/>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
-      <c r="BT12" s="21"/>
-      <c r="BU12" s="21"/>
-      <c r="BV12" s="21"/>
-      <c r="BW12" s="21"/>
-      <c r="BX12" s="21"/>
-      <c r="BY12" s="21"/>
-      <c r="BZ12" s="21"/>
-      <c r="CA12" s="21"/>
-      <c r="CB12" s="21"/>
-      <c r="CC12" s="21"/>
-      <c r="CD12" s="21"/>
-      <c r="CE12" s="21"/>
-      <c r="CF12" s="21"/>
-      <c r="CG12" s="21"/>
-      <c r="CH12" s="21"/>
-      <c r="CI12" s="21"/>
-      <c r="CJ12" s="21"/>
-      <c r="CK12" s="21"/>
-      <c r="CL12" s="21"/>
-      <c r="CM12" s="21"/>
-      <c r="CN12" s="21"/>
-      <c r="CO12" s="22"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="20"/>
+      <c r="CI12" s="20"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="20"/>
+      <c r="CO12" s="21"/>
     </row>
     <row r="13" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="37">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="33">
         <v>10</v>
       </c>
-      <c r="BO13" s="38"/>
-      <c r="BP13" s="38"/>
-      <c r="BQ13" s="38"/>
-      <c r="BR13" s="38"/>
-      <c r="BS13" s="38"/>
-      <c r="BT13" s="39"/>
-      <c r="BU13" s="21"/>
-      <c r="BV13" s="21"/>
-      <c r="BW13" s="21"/>
-      <c r="BX13" s="21"/>
-      <c r="BY13" s="21"/>
-      <c r="BZ13" s="21"/>
-      <c r="CA13" s="21"/>
-      <c r="CB13" s="21"/>
-      <c r="CC13" s="21"/>
-      <c r="CD13" s="21"/>
-      <c r="CE13" s="21"/>
-      <c r="CF13" s="21"/>
-      <c r="CG13" s="21"/>
-      <c r="CH13" s="21"/>
-      <c r="CI13" s="21"/>
-      <c r="CJ13" s="21"/>
-      <c r="CK13" s="21"/>
-      <c r="CL13" s="21"/>
-      <c r="CM13" s="21"/>
-      <c r="CN13" s="21"/>
-      <c r="CO13" s="22"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="34"/>
+      <c r="BQ13" s="34"/>
+      <c r="BR13" s="34"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20"/>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="20"/>
+      <c r="CO13" s="21"/>
     </row>
     <row r="14" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="BU14" s="37">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="33">
         <v>11</v>
       </c>
-      <c r="BV14" s="38"/>
-      <c r="BW14" s="38"/>
-      <c r="BX14" s="38"/>
-      <c r="BY14" s="38"/>
-      <c r="BZ14" s="38"/>
-      <c r="CA14" s="39"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
-      <c r="CM14" s="21"/>
-      <c r="CN14" s="21"/>
-      <c r="CO14" s="22"/>
+      <c r="BV14" s="34"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="35"/>
+      <c r="CB14" s="20"/>
+      <c r="CC14" s="20"/>
+      <c r="CD14" s="20"/>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="20"/>
+      <c r="CK14" s="20"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="20"/>
+      <c r="CO14" s="21"/>
     </row>
     <row r="15" spans="2:100" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
-      <c r="BW15" s="21"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="21"/>
-      <c r="CC15" s="21"/>
-      <c r="CD15" s="21"/>
-      <c r="CE15" s="21"/>
-      <c r="CF15" s="21"/>
-      <c r="CG15" s="21"/>
-      <c r="CH15" s="21"/>
-      <c r="CI15" s="21"/>
-      <c r="CJ15" s="21"/>
-      <c r="CK15" s="21"/>
-      <c r="CL15" s="21"/>
-      <c r="CM15" s="21"/>
-      <c r="CN15" s="21"/>
-      <c r="CO15" s="22"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
+      <c r="CH15" s="20"/>
+      <c r="CI15" s="20"/>
+      <c r="CJ15" s="20"/>
+      <c r="CK15" s="20"/>
+      <c r="CL15" s="20"/>
+      <c r="CM15" s="20"/>
+      <c r="CN15" s="20"/>
+      <c r="CO15" s="21"/>
     </row>
     <row r="16" spans="2:100" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BI16" s="28"/>
-      <c r="BJ16" s="28"/>
-      <c r="BK16" s="28"/>
-      <c r="BL16" s="28"/>
-      <c r="BM16" s="28"/>
-      <c r="BN16" s="28"/>
-      <c r="BO16" s="28"/>
-      <c r="BP16" s="28"/>
-      <c r="BQ16" s="28"/>
-      <c r="BR16" s="28"/>
-      <c r="BS16" s="28"/>
-      <c r="BT16" s="28"/>
-      <c r="BU16" s="28"/>
-      <c r="BV16" s="28"/>
-      <c r="BW16" s="28"/>
-      <c r="BX16" s="28"/>
-      <c r="BY16" s="28"/>
-      <c r="BZ16" s="28"/>
-      <c r="CA16" s="28"/>
-      <c r="CB16" s="28"/>
-      <c r="CC16" s="28"/>
-      <c r="CD16" s="28"/>
-      <c r="CE16" s="28"/>
-      <c r="CF16" s="28"/>
-      <c r="CG16" s="28"/>
-      <c r="CH16" s="28"/>
-      <c r="CI16" s="28"/>
-      <c r="CJ16" s="28"/>
-      <c r="CK16" s="28"/>
-      <c r="CL16" s="28"/>
-      <c r="CM16" s="28"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
+      <c r="BO16" s="27"/>
+      <c r="BP16" s="27"/>
+      <c r="BQ16" s="27"/>
+      <c r="BR16" s="27"/>
+      <c r="BS16" s="27"/>
+      <c r="BT16" s="27"/>
+      <c r="BU16" s="27"/>
+      <c r="BV16" s="27"/>
+      <c r="BW16" s="27"/>
+      <c r="BX16" s="27"/>
+      <c r="BY16" s="27"/>
+      <c r="BZ16" s="27"/>
+      <c r="CA16" s="27"/>
+      <c r="CB16" s="27"/>
+      <c r="CC16" s="27"/>
+      <c r="CD16" s="27"/>
+      <c r="CE16" s="27"/>
+      <c r="CF16" s="27"/>
+      <c r="CG16" s="27"/>
+      <c r="CH16" s="27"/>
+      <c r="CI16" s="27"/>
+      <c r="CJ16" s="27"/>
+      <c r="CK16" s="27"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="29"/>
     </row>
     <row r="17" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
-      <c r="BQ17" s="21"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
-      <c r="BT17" s="21"/>
-      <c r="BU17" s="21"/>
-      <c r="BV17" s="21"/>
-      <c r="BW17" s="21"/>
-      <c r="BX17" s="21"/>
-      <c r="BY17" s="21"/>
-      <c r="BZ17" s="21"/>
-      <c r="CA17" s="21"/>
-      <c r="CB17" s="21"/>
-      <c r="CC17" s="21"/>
-      <c r="CD17" s="21"/>
-      <c r="CE17" s="21"/>
-      <c r="CF17" s="21"/>
-      <c r="CG17" s="21"/>
-      <c r="CH17" s="21"/>
-      <c r="CI17" s="21"/>
-      <c r="CJ17" s="21"/>
-      <c r="CK17" s="21"/>
-      <c r="CL17" s="21"/>
-      <c r="CM17" s="21"/>
-      <c r="CN17" s="21"/>
-      <c r="CO17" s="22"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
+      <c r="BZ17" s="20"/>
+      <c r="CA17" s="20"/>
+      <c r="CB17" s="20"/>
+      <c r="CC17" s="20"/>
+      <c r="CD17" s="20"/>
+      <c r="CE17" s="20"/>
+      <c r="CF17" s="20"/>
+      <c r="CG17" s="20"/>
+      <c r="CH17" s="20"/>
+      <c r="CI17" s="20"/>
+      <c r="CJ17" s="20"/>
+      <c r="CK17" s="20"/>
+      <c r="CL17" s="20"/>
+      <c r="CM17" s="20"/>
+      <c r="CN17" s="20"/>
+      <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="34"/>
-      <c r="CA18" s="34"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="34"/>
-      <c r="CD18" s="34"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
-      <c r="CJ18" s="34"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="34"/>
-      <c r="CM18" s="34"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="31"/>
+      <c r="CJ18" s="31"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="31"/>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="32"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-      <c r="BU19" s="21"/>
-      <c r="BV19" s="21"/>
-      <c r="BW19" s="21"/>
-      <c r="BX19" s="21"/>
-      <c r="BY19" s="21"/>
-      <c r="BZ19" s="21"/>
-      <c r="CA19" s="21"/>
-      <c r="CB19" s="21"/>
-      <c r="CC19" s="21"/>
-      <c r="CD19" s="21"/>
-      <c r="CE19" s="21"/>
-      <c r="CF19" s="21"/>
-      <c r="CG19" s="21"/>
-      <c r="CH19" s="21"/>
-      <c r="CI19" s="21"/>
-      <c r="CJ19" s="21"/>
-      <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="22"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="20"/>
+      <c r="CE19" s="20"/>
+      <c r="CF19" s="20"/>
+      <c r="CG19" s="20"/>
+      <c r="CH19" s="20"/>
+      <c r="CI19" s="20"/>
+      <c r="CJ19" s="20"/>
+      <c r="CK19" s="20"/>
+      <c r="CL19" s="20"/>
+      <c r="CM19" s="20"/>
+      <c r="CN19" s="20"/>
+      <c r="CO19" s="21"/>
     </row>
     <row r="20" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-      <c r="C20" s="37">
+      <c r="B20" s="15"/>
+      <c r="C20" s="33">
         <v>1</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="19"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="21"/>
-      <c r="CE20" s="21"/>
-      <c r="CF20" s="21"/>
-      <c r="CG20" s="21"/>
-      <c r="CH20" s="21"/>
-      <c r="CI20" s="21"/>
-      <c r="CJ20" s="21"/>
-      <c r="CK20" s="21"/>
-      <c r="CL20" s="21"/>
-      <c r="CM20" s="21"/>
-      <c r="CN20" s="21"/>
-      <c r="CO20" s="22"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="20"/>
+      <c r="CE20" s="20"/>
+      <c r="CF20" s="20"/>
+      <c r="CG20" s="20"/>
+      <c r="CH20" s="20"/>
+      <c r="CI20" s="20"/>
+      <c r="CJ20" s="20"/>
+      <c r="CK20" s="20"/>
+      <c r="CL20" s="20"/>
+      <c r="CM20" s="20"/>
+      <c r="CN20" s="20"/>
+      <c r="CO20" s="21"/>
     </row>
     <row r="21" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="37">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="33">
         <v>2</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="19"/>
-      <c r="BM21" s="19"/>
-      <c r="BN21" s="19"/>
-      <c r="BO21" s="19"/>
-      <c r="BP21" s="19"/>
-      <c r="BQ21" s="19"/>
-      <c r="BR21" s="19"/>
-      <c r="BS21" s="19"/>
-      <c r="BT21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="BV21" s="19"/>
-      <c r="BW21" s="19"/>
-      <c r="BX21" s="19"/>
-      <c r="BY21" s="19"/>
-      <c r="BZ21" s="19"/>
-      <c r="CA21" s="19"/>
-      <c r="CB21" s="19"/>
-      <c r="CC21" s="19"/>
-      <c r="CD21" s="21"/>
-      <c r="CE21" s="21"/>
-      <c r="CF21" s="21"/>
-      <c r="CG21" s="21"/>
-      <c r="CH21" s="21"/>
-      <c r="CI21" s="21"/>
-      <c r="CJ21" s="21"/>
-      <c r="CK21" s="21"/>
-      <c r="CL21" s="21"/>
-      <c r="CM21" s="21"/>
-      <c r="CN21" s="21"/>
-      <c r="CO21" s="22"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="20"/>
+      <c r="CE21" s="20"/>
+      <c r="CF21" s="20"/>
+      <c r="CG21" s="20"/>
+      <c r="CH21" s="20"/>
+      <c r="CI21" s="20"/>
+      <c r="CJ21" s="20"/>
+      <c r="CK21" s="20"/>
+      <c r="CL21" s="20"/>
+      <c r="CM21" s="20"/>
+      <c r="CN21" s="20"/>
+      <c r="CO21" s="21"/>
     </row>
     <row r="22" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="37">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="33">
         <v>3</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="21"/>
-      <c r="BJ22" s="21"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="21"/>
-      <c r="BM22" s="21"/>
-      <c r="BN22" s="21"/>
-      <c r="BO22" s="21"/>
-      <c r="BP22" s="21"/>
-      <c r="BQ22" s="21"/>
-      <c r="BR22" s="21"/>
-      <c r="BS22" s="21"/>
-      <c r="BT22" s="21"/>
-      <c r="BU22" s="21"/>
-      <c r="BV22" s="21"/>
-      <c r="BW22" s="21"/>
-      <c r="BX22" s="21"/>
-      <c r="BY22" s="21"/>
-      <c r="BZ22" s="21"/>
-      <c r="CA22" s="21"/>
-      <c r="CB22" s="21"/>
-      <c r="CC22" s="21"/>
-      <c r="CD22" s="21"/>
-      <c r="CE22" s="21"/>
-      <c r="CF22" s="21"/>
-      <c r="CG22" s="21"/>
-      <c r="CH22" s="21"/>
-      <c r="CI22" s="21"/>
-      <c r="CJ22" s="21"/>
-      <c r="CK22" s="21"/>
-      <c r="CL22" s="21"/>
-      <c r="CM22" s="21"/>
-      <c r="CN22" s="21"/>
-      <c r="CO22" s="22"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="20"/>
+      <c r="BR22" s="20"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="20"/>
+      <c r="BW22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
+      <c r="BZ22" s="20"/>
+      <c r="CA22" s="20"/>
+      <c r="CB22" s="20"/>
+      <c r="CC22" s="20"/>
+      <c r="CD22" s="20"/>
+      <c r="CE22" s="20"/>
+      <c r="CF22" s="20"/>
+      <c r="CG22" s="20"/>
+      <c r="CH22" s="20"/>
+      <c r="CI22" s="20"/>
+      <c r="CJ22" s="20"/>
+      <c r="CK22" s="20"/>
+      <c r="CL22" s="20"/>
+      <c r="CM22" s="20"/>
+      <c r="CN22" s="20"/>
+      <c r="CO22" s="21"/>
     </row>
     <row r="23" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="37">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="33">
         <v>4</v>
       </c>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
-      <c r="BN23" s="21"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="21"/>
-      <c r="BQ23" s="21"/>
-      <c r="BR23" s="21"/>
-      <c r="BS23" s="21"/>
-      <c r="BT23" s="21"/>
-      <c r="BU23" s="21"/>
-      <c r="BV23" s="21"/>
-      <c r="BW23" s="21"/>
-      <c r="BX23" s="21"/>
-      <c r="BY23" s="21"/>
-      <c r="BZ23" s="21"/>
-      <c r="CA23" s="21"/>
-      <c r="CB23" s="21"/>
-      <c r="CC23" s="21"/>
-      <c r="CD23" s="21"/>
-      <c r="CE23" s="21"/>
-      <c r="CF23" s="21"/>
-      <c r="CG23" s="21"/>
-      <c r="CH23" s="21"/>
-      <c r="CI23" s="21"/>
-      <c r="CJ23" s="21"/>
-      <c r="CK23" s="21"/>
-      <c r="CL23" s="21"/>
-      <c r="CM23" s="21"/>
-      <c r="CN23" s="21"/>
-      <c r="CO23" s="22"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
+      <c r="CJ23" s="20"/>
+      <c r="CK23" s="20"/>
+      <c r="CL23" s="20"/>
+      <c r="CM23" s="20"/>
+      <c r="CN23" s="20"/>
+      <c r="CO23" s="21"/>
     </row>
     <row r="24" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="37">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="33">
         <v>5</v>
       </c>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
-      <c r="BM24" s="21"/>
-      <c r="BN24" s="21"/>
-      <c r="BO24" s="21"/>
-      <c r="BP24" s="21"/>
-      <c r="BQ24" s="21"/>
-      <c r="BR24" s="21"/>
-      <c r="BS24" s="21"/>
-      <c r="BT24" s="21"/>
-      <c r="BU24" s="21"/>
-      <c r="BV24" s="21"/>
-      <c r="BW24" s="21"/>
-      <c r="BX24" s="21"/>
-      <c r="BY24" s="21"/>
-      <c r="BZ24" s="21"/>
-      <c r="CA24" s="21"/>
-      <c r="CB24" s="21"/>
-      <c r="CC24" s="21"/>
-      <c r="CD24" s="21"/>
-      <c r="CE24" s="21"/>
-      <c r="CF24" s="21"/>
-      <c r="CG24" s="21"/>
-      <c r="CH24" s="21"/>
-      <c r="CI24" s="21"/>
-      <c r="CJ24" s="21"/>
-      <c r="CK24" s="21"/>
-      <c r="CL24" s="21"/>
-      <c r="CM24" s="21"/>
-      <c r="CN24" s="21"/>
-      <c r="CO24" s="22"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="20"/>
+      <c r="CI24" s="20"/>
+      <c r="CJ24" s="20"/>
+      <c r="CK24" s="20"/>
+      <c r="CL24" s="20"/>
+      <c r="CM24" s="20"/>
+      <c r="CN24" s="20"/>
+      <c r="CO24" s="21"/>
     </row>
     <row r="25" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="37">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="33">
         <v>6</v>
       </c>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
-      <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
-      <c r="BR25" s="21"/>
-      <c r="BS25" s="21"/>
-      <c r="BT25" s="21"/>
-      <c r="BU25" s="21"/>
-      <c r="BV25" s="21"/>
-      <c r="BW25" s="21"/>
-      <c r="BX25" s="21"/>
-      <c r="BY25" s="21"/>
-      <c r="BZ25" s="21"/>
-      <c r="CA25" s="21"/>
-      <c r="CB25" s="21"/>
-      <c r="CC25" s="21"/>
-      <c r="CD25" s="21"/>
-      <c r="CE25" s="21"/>
-      <c r="CF25" s="21"/>
-      <c r="CG25" s="21"/>
-      <c r="CH25" s="21"/>
-      <c r="CI25" s="21"/>
-      <c r="CJ25" s="21"/>
-      <c r="CK25" s="21"/>
-      <c r="CL25" s="21"/>
-      <c r="CM25" s="21"/>
-      <c r="CN25" s="21"/>
-      <c r="CO25" s="22"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="35"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="20"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="20"/>
+      <c r="CI25" s="20"/>
+      <c r="CJ25" s="20"/>
+      <c r="CK25" s="20"/>
+      <c r="CL25" s="20"/>
+      <c r="CM25" s="20"/>
+      <c r="CN25" s="20"/>
+      <c r="CO25" s="21"/>
     </row>
     <row r="26" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="37">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="33">
         <v>7</v>
       </c>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="21"/>
-      <c r="BG26" s="21"/>
-      <c r="BH26" s="21"/>
-      <c r="BI26" s="21"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="21"/>
-      <c r="BL26" s="21"/>
-      <c r="BM26" s="21"/>
-      <c r="BN26" s="21"/>
-      <c r="BO26" s="21"/>
-      <c r="BP26" s="21"/>
-      <c r="BQ26" s="21"/>
-      <c r="BR26" s="21"/>
-      <c r="BS26" s="21"/>
-      <c r="BT26" s="21"/>
-      <c r="BU26" s="21"/>
-      <c r="BV26" s="21"/>
-      <c r="BW26" s="21"/>
-      <c r="BX26" s="21"/>
-      <c r="BY26" s="21"/>
-      <c r="BZ26" s="21"/>
-      <c r="CA26" s="21"/>
-      <c r="CB26" s="21"/>
-      <c r="CC26" s="21"/>
-      <c r="CD26" s="21"/>
-      <c r="CE26" s="21"/>
-      <c r="CF26" s="21"/>
-      <c r="CG26" s="21"/>
-      <c r="CH26" s="21"/>
-      <c r="CI26" s="21"/>
-      <c r="CJ26" s="21"/>
-      <c r="CK26" s="21"/>
-      <c r="CL26" s="21"/>
-      <c r="CM26" s="21"/>
-      <c r="CN26" s="21"/>
-      <c r="CO26" s="22"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="20"/>
+      <c r="CJ26" s="20"/>
+      <c r="CK26" s="20"/>
+      <c r="CL26" s="20"/>
+      <c r="CM26" s="20"/>
+      <c r="CN26" s="20"/>
+      <c r="CO26" s="21"/>
     </row>
     <row r="27" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
-      <c r="BI27" s="21"/>
-      <c r="BJ27" s="21"/>
-      <c r="BK27" s="21"/>
-      <c r="BL27" s="21"/>
-      <c r="BM27" s="21"/>
-      <c r="BN27" s="21"/>
-      <c r="BO27" s="21"/>
-      <c r="BP27" s="21"/>
-      <c r="BQ27" s="21"/>
-      <c r="BR27" s="21"/>
-      <c r="BS27" s="21"/>
-      <c r="BT27" s="21"/>
-      <c r="BU27" s="21"/>
-      <c r="BV27" s="21"/>
-      <c r="BW27" s="21"/>
-      <c r="BX27" s="21"/>
-      <c r="BY27" s="21"/>
-      <c r="BZ27" s="21"/>
-      <c r="CA27" s="21"/>
-      <c r="CB27" s="21"/>
-      <c r="CC27" s="21"/>
-      <c r="CD27" s="21"/>
-      <c r="CE27" s="21"/>
-      <c r="CF27" s="21"/>
-      <c r="CG27" s="21"/>
-      <c r="CH27" s="21"/>
-      <c r="CI27" s="21"/>
-      <c r="CJ27" s="21"/>
-      <c r="CK27" s="21"/>
-      <c r="CL27" s="21"/>
-      <c r="CM27" s="21"/>
-      <c r="CN27" s="21"/>
-      <c r="CO27" s="22"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="20"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="20"/>
+      <c r="CH27" s="20"/>
+      <c r="CI27" s="20"/>
+      <c r="CJ27" s="20"/>
+      <c r="CK27" s="20"/>
+      <c r="CL27" s="20"/>
+      <c r="CM27" s="20"/>
+      <c r="CN27" s="20"/>
+      <c r="CO27" s="21"/>
     </row>
     <row r="28" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="21"/>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="21"/>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="21"/>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
-      <c r="BV28" s="21"/>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="21"/>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="21"/>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
-      <c r="CH28" s="21"/>
-      <c r="CI28" s="21"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21"/>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="22"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="16"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="20"/>
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="20"/>
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="20"/>
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
+      <c r="CO28" s="21"/>
     </row>
     <row r="29" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
-      <c r="BI29" s="21"/>
-      <c r="BJ29" s="21"/>
-      <c r="BK29" s="21"/>
-      <c r="BL29" s="21"/>
-      <c r="BM29" s="21"/>
-      <c r="BN29" s="21"/>
-      <c r="BO29" s="21"/>
-      <c r="BP29" s="21"/>
-      <c r="BQ29" s="21"/>
-      <c r="BR29" s="21"/>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="21"/>
-      <c r="BU29" s="21"/>
-      <c r="BV29" s="21"/>
-      <c r="BW29" s="21"/>
-      <c r="BX29" s="21"/>
-      <c r="BY29" s="21"/>
-      <c r="BZ29" s="21"/>
-      <c r="CA29" s="21"/>
-      <c r="CB29" s="21"/>
-      <c r="CC29" s="21"/>
-      <c r="CD29" s="21"/>
-      <c r="CE29" s="21"/>
-      <c r="CF29" s="21"/>
-      <c r="CG29" s="21"/>
-      <c r="CH29" s="21"/>
-      <c r="CI29" s="21"/>
-      <c r="CJ29" s="21"/>
-      <c r="CK29" s="21"/>
-      <c r="CL29" s="21"/>
-      <c r="CM29" s="21"/>
-      <c r="CN29" s="21"/>
-      <c r="CO29" s="22"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="20"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="20"/>
+      <c r="BU29" s="20"/>
+      <c r="BV29" s="20"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="20"/>
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20"/>
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="20"/>
+      <c r="CH29" s="20"/>
+      <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
+      <c r="CK29" s="20"/>
+      <c r="CL29" s="20"/>
+      <c r="CM29" s="20"/>
+      <c r="CN29" s="20"/>
+      <c r="CO29" s="21"/>
     </row>
     <row r="30" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
-      <c r="BI30" s="21"/>
-      <c r="BJ30" s="21"/>
-      <c r="BK30" s="21"/>
-      <c r="BL30" s="21"/>
-      <c r="BM30" s="21"/>
-      <c r="BN30" s="21"/>
-      <c r="BO30" s="21"/>
-      <c r="BP30" s="21"/>
-      <c r="BQ30" s="21"/>
-      <c r="BR30" s="21"/>
-      <c r="BS30" s="21"/>
-      <c r="BT30" s="21"/>
-      <c r="BU30" s="21"/>
-      <c r="BV30" s="21"/>
-      <c r="BW30" s="21"/>
-      <c r="BX30" s="21"/>
-      <c r="BY30" s="21"/>
-      <c r="BZ30" s="21"/>
-      <c r="CA30" s="21"/>
-      <c r="CB30" s="21"/>
-      <c r="CC30" s="21"/>
-      <c r="CD30" s="21"/>
-      <c r="CE30" s="21"/>
-      <c r="CF30" s="21"/>
-      <c r="CG30" s="21"/>
-      <c r="CH30" s="21"/>
-      <c r="CI30" s="21"/>
-      <c r="CJ30" s="21"/>
-      <c r="CK30" s="21"/>
-      <c r="CL30" s="21"/>
-      <c r="CM30" s="21"/>
-      <c r="CN30" s="21"/>
-      <c r="CO30" s="22"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="20"/>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="20"/>
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="20"/>
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="20"/>
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="20"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="BV30" s="20"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="BZ30" s="20"/>
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="20"/>
+      <c r="CE30" s="20"/>
+      <c r="CF30" s="20"/>
+      <c r="CG30" s="20"/>
+      <c r="CH30" s="20"/>
+      <c r="CI30" s="20"/>
+      <c r="CJ30" s="20"/>
+      <c r="CK30" s="20"/>
+      <c r="CL30" s="20"/>
+      <c r="CM30" s="20"/>
+      <c r="CN30" s="20"/>
+      <c r="CO30" s="21"/>
     </row>
     <row r="31" spans="2:93" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
-      <c r="AQ31" s="27"/>
-      <c r="AR31" s="27"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="28"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BI31" s="28"/>
-      <c r="BJ31" s="28"/>
-      <c r="BK31" s="28"/>
-      <c r="BL31" s="28"/>
-      <c r="BM31" s="28"/>
-      <c r="BN31" s="28"/>
-      <c r="BO31" s="28"/>
-      <c r="BP31" s="28"/>
-      <c r="BQ31" s="28"/>
-      <c r="BR31" s="28"/>
-      <c r="BS31" s="28"/>
-      <c r="BT31" s="28"/>
-      <c r="BU31" s="28"/>
-      <c r="BV31" s="28"/>
-      <c r="BW31" s="28"/>
-      <c r="BX31" s="28"/>
-      <c r="BY31" s="28"/>
-      <c r="BZ31" s="28"/>
-      <c r="CA31" s="28"/>
-      <c r="CB31" s="28"/>
-      <c r="CC31" s="28"/>
-      <c r="CD31" s="28"/>
-      <c r="CE31" s="28"/>
-      <c r="CF31" s="28"/>
-      <c r="CG31" s="28"/>
-      <c r="CH31" s="28"/>
-      <c r="CI31" s="28"/>
-      <c r="CJ31" s="28"/>
-      <c r="CK31" s="28"/>
-      <c r="CL31" s="28"/>
-      <c r="CM31" s="28"/>
-      <c r="CN31" s="28"/>
-      <c r="CO31" s="31"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="27"/>
+      <c r="BK31" s="27"/>
+      <c r="BL31" s="27"/>
+      <c r="BM31" s="27"/>
+      <c r="BN31" s="27"/>
+      <c r="BO31" s="27"/>
+      <c r="BP31" s="27"/>
+      <c r="BQ31" s="27"/>
+      <c r="BR31" s="27"/>
+      <c r="BS31" s="27"/>
+      <c r="BT31" s="27"/>
+      <c r="BU31" s="27"/>
+      <c r="BV31" s="27"/>
+      <c r="BW31" s="27"/>
+      <c r="BX31" s="27"/>
+      <c r="BY31" s="27"/>
+      <c r="BZ31" s="27"/>
+      <c r="CA31" s="27"/>
+      <c r="CB31" s="27"/>
+      <c r="CC31" s="27"/>
+      <c r="CD31" s="27"/>
+      <c r="CE31" s="27"/>
+      <c r="CF31" s="27"/>
+      <c r="CG31" s="27"/>
+      <c r="CH31" s="27"/>
+      <c r="CI31" s="27"/>
+      <c r="CJ31" s="27"/>
+      <c r="CK31" s="27"/>
+      <c r="CL31" s="27"/>
+      <c r="CM31" s="27"/>
+      <c r="CN31" s="27"/>
+      <c r="CO31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS10:AY10"/>
+    <mergeCell ref="AZ11:BF11"/>
+    <mergeCell ref="BG12:BM12"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
     <mergeCell ref="B18:CO18"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="J20:P20"/>
     <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
-    <mergeCell ref="AS10:AY10"/>
-    <mergeCell ref="AZ11:BF11"/>
-    <mergeCell ref="BG12:BM12"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="J5:P5"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Action</t>
   </si>
@@ -531,14 +531,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,16 +549,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1424,11 +1424,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="360114848"/>
-        <c:axId val="636728432"/>
+        <c:axId val="1025908080"/>
+        <c:axId val="1025893936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360114848"/>
+        <c:axId val="1025908080"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1471,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636728432"/>
+        <c:crossAx val="1025893936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1479,7 +1479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636728432"/>
+        <c:axId val="1025893936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1531,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360114848"/>
+        <c:crossAx val="1025908080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1878,7 +1878,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15</c:v>
@@ -1992,11 +1992,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="636732240"/>
-        <c:axId val="636731696"/>
+        <c:axId val="1025896112"/>
+        <c:axId val="823141648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="636732240"/>
+        <c:axId val="1025896112"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2039,7 +2039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636731696"/>
+        <c:crossAx val="823141648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2047,7 +2047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636731696"/>
+        <c:axId val="823141648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2099,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636732240"/>
+        <c:crossAx val="1025896112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2340,10 +2340,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$J$4:$J$11</c:f>
+              <c:f>'Schedule Metrics Tracking'!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2354,7 +2354,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0769230769230769</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.93333333333333335</c:v>
@@ -2366,6 +2366,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2382,11 +2385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="636737136"/>
-        <c:axId val="636730064"/>
+        <c:axId val="1094267504"/>
+        <c:axId val="1094259888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636737136"/>
+        <c:axId val="1094267504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636730064"/>
+        <c:crossAx val="1094259888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636730064"/>
+        <c:axId val="1094259888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636737136"/>
+        <c:crossAx val="1094267504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4614,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF49" sqref="AF49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,11 +4810,11 @@
         <v>41958</v>
       </c>
       <c r="I7" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="11">
         <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>1.0769230769230769</v>
+        <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
@@ -4873,11 +4876,11 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G11" si="4">H8+1</f>
+        <f t="shared" ref="G9:G12" si="4">H8+1</f>
         <v>42003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H11" si="5">G9+13</f>
+        <f t="shared" ref="H9:H12" si="5">G9+13</f>
         <v>42016</v>
       </c>
       <c r="I9" s="10">
@@ -4987,13 +4990,23 @@
       <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
+        <v>42045</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="5"/>
+        <v>42058</v>
+      </c>
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5189,100 +5202,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="31"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="31"/>
-      <c r="BM2" s="31"/>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
-      <c r="BP2" s="31"/>
-      <c r="BQ2" s="31"/>
-      <c r="BR2" s="31"/>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="31"/>
-      <c r="BV2" s="31"/>
-      <c r="BW2" s="31"/>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="31"/>
-      <c r="CA2" s="31"/>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
-      <c r="CJ2" s="31"/>
-      <c r="CK2" s="31"/>
-      <c r="CL2" s="31"/>
-      <c r="CM2" s="31"/>
-      <c r="CN2" s="31"/>
-      <c r="CO2" s="32"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="38"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
@@ -5389,13 +5402,13 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -6042,20 +6055,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
-      <c r="CL10" s="38"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="39"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="37"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="37"/>
+      <c r="CI10" s="31"/>
+      <c r="CJ10" s="31"/>
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="31"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="32"/>
+      <c r="CP10" s="30"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="30"/>
+      <c r="CS10" s="30"/>
+      <c r="CT10" s="30"/>
+      <c r="CU10" s="30"/>
+      <c r="CV10" s="30"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6724,100 +6737,100 @@
       <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31"/>
-      <c r="BZ18" s="31"/>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="31"/>
-      <c r="CC18" s="31"/>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="31"/>
-      <c r="CF18" s="31"/>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="31"/>
-      <c r="CI18" s="31"/>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="31"/>
-      <c r="CL18" s="31"/>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="31"/>
-      <c r="CO18" s="32"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="38"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
@@ -6924,13 +6937,13 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
@@ -8057,17 +8070,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
-    <mergeCell ref="AS10:AY10"/>
-    <mergeCell ref="AZ11:BF11"/>
-    <mergeCell ref="BG12:BM12"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8081,6 +8083,17 @@
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS10:AY10"/>
+    <mergeCell ref="AZ11:BF11"/>
+    <mergeCell ref="BG12:BM12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Action</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Beta Release</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
+    <t>Each case name, description and admisson notes is separated to different &lt;div&gt;</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,6 +540,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,15 +556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +569,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1424,11 +1436,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1025908080"/>
-        <c:axId val="1025893936"/>
+        <c:axId val="-1211920400"/>
+        <c:axId val="-1211929648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1025908080"/>
+        <c:axId val="-1211920400"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1471,7 +1483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025893936"/>
+        <c:crossAx val="-1211929648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1479,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1025893936"/>
+        <c:axId val="-1211929648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1531,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025908080"/>
+        <c:crossAx val="-1211920400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1992,11 +2004,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1025896112"/>
-        <c:axId val="823141648"/>
+        <c:axId val="-1211919312"/>
+        <c:axId val="-1211918224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1025896112"/>
+        <c:axId val="-1211919312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2039,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823141648"/>
+        <c:crossAx val="-1211918224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2047,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823141648"/>
+        <c:axId val="-1211918224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2099,7 +2111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025896112"/>
+        <c:crossAx val="-1211919312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2340,10 +2352,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$J$4:$J$12</c:f>
+              <c:f>'Schedule Metrics Tracking'!$J$4:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2357,7 +2369,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93333333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -2369,6 +2381,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2385,11 +2400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1094267504"/>
-        <c:axId val="1094259888"/>
+        <c:axId val="-1211917680"/>
+        <c:axId val="-1211927472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1094267504"/>
+        <c:axId val="-1211917680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1094259888"/>
+        <c:crossAx val="-1211927472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1094259888"/>
+        <c:axId val="-1211927472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1094267504"/>
+        <c:crossAx val="-1211917680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4617,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,9 +4862,8 @@
       <c r="I8" s="10">
         <v>15</v>
       </c>
-      <c r="J8" s="11">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>0.93333333333333335</v>
+      <c r="J8" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -4880,7 +4894,7 @@
         <v>42003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H12" si="5">G9+13</f>
+        <f t="shared" ref="H9:H13" si="5">G9+13</f>
         <v>42016</v>
       </c>
       <c r="I9" s="10">
@@ -4995,8 +5009,8 @@
         <v>42045</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="5"/>
-        <v>42058</v>
+        <f>G12+12</f>
+        <v>42057</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
@@ -5025,13 +5039,23 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12">
+        <f>H12+1</f>
+        <v>42058</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="5"/>
+        <v>42071</v>
+      </c>
       <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
@@ -5051,7 +5075,9 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
@@ -5077,7 +5103,9 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
@@ -5129,9 +5157,7 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10">
@@ -5188,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:CO18"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CW19" sqref="CW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5393,15 +5419,15 @@
     </row>
     <row r="4" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
@@ -5496,15 +5522,15 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="33">
+      <c r="J5" s="30">
         <v>2</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -5599,15 +5625,15 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="33">
+      <c r="Q6" s="30">
         <v>3</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -5702,15 +5728,15 @@
       <c r="U7" s="22"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="33">
+      <c r="X7" s="30">
         <v>4</v>
       </c>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="35"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="32"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
@@ -5805,15 +5831,15 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="33">
+      <c r="AE8" s="30">
         <v>5</v>
       </c>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="35"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
@@ -5908,15 +5934,15 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="33">
+      <c r="AL9" s="30">
         <v>6</v>
       </c>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="35"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="32"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23"/>
@@ -6011,15 +6037,15 @@
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
-      <c r="AS10" s="33">
+      <c r="AS10" s="30">
         <v>7</v>
       </c>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="35"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
       <c r="AZ10" s="20"/>
       <c r="BA10" s="20"/>
       <c r="BB10" s="20"/>
@@ -6055,20 +6081,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="31"/>
-      <c r="CJ10" s="31"/>
-      <c r="CK10" s="31"/>
-      <c r="CL10" s="31"/>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="31"/>
-      <c r="CO10" s="32"/>
-      <c r="CP10" s="30"/>
-      <c r="CQ10" s="30"/>
-      <c r="CR10" s="30"/>
-      <c r="CS10" s="30"/>
-      <c r="CT10" s="30"/>
-      <c r="CU10" s="30"/>
-      <c r="CV10" s="30"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="34"/>
+      <c r="CK10" s="34"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="34"/>
+      <c r="CN10" s="34"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6121,15 +6147,15 @@
       <c r="AW11" s="20"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="20"/>
-      <c r="AZ11" s="33">
+      <c r="AZ11" s="30">
         <v>8</v>
       </c>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="35"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="32"/>
       <c r="BG11" s="20"/>
       <c r="BH11" s="20"/>
       <c r="BI11" s="20"/>
@@ -6224,15 +6250,15 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
       <c r="BF12" s="20"/>
-      <c r="BG12" s="33">
+      <c r="BG12" s="30">
         <v>9</v>
       </c>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="35"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="32"/>
       <c r="BN12" s="20"/>
       <c r="BO12" s="20"/>
       <c r="BP12" s="20"/>
@@ -6327,15 +6353,15 @@
       <c r="BK13" s="20"/>
       <c r="BL13" s="20"/>
       <c r="BM13" s="20"/>
-      <c r="BN13" s="33">
+      <c r="BN13" s="30">
         <v>10</v>
       </c>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="35"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="32"/>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
       <c r="BW13" s="20"/>
@@ -6430,15 +6456,15 @@
       <c r="BR14" s="20"/>
       <c r="BS14" s="20"/>
       <c r="BT14" s="20"/>
-      <c r="BU14" s="33">
+      <c r="BU14" s="30">
         <v>11</v>
       </c>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CA14" s="35"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="32"/>
       <c r="CB14" s="20"/>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
@@ -6928,15 +6954,15 @@
     </row>
     <row r="20" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -7031,15 +7057,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="33">
+      <c r="J21" s="30">
         <v>2</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
@@ -7134,15 +7160,15 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="33">
+      <c r="Q22" s="30">
         <v>3</v>
       </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -7237,15 +7263,15 @@
       <c r="U23" s="22"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="33">
+      <c r="X23" s="30">
         <v>4</v>
       </c>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="35"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="32"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
@@ -7340,15 +7366,15 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="33">
+      <c r="AE24" s="30">
         <v>5</v>
       </c>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="35"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="32"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
@@ -7443,15 +7469,15 @@
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
-      <c r="AL25" s="33">
+      <c r="AL25" s="30">
         <v>6</v>
       </c>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="35"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="32"/>
       <c r="AS25" s="23"/>
       <c r="AT25" s="23"/>
       <c r="AU25" s="23"/>
@@ -7546,15 +7572,15 @@
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
-      <c r="AS26" s="33">
+      <c r="AS26" s="30">
         <v>7</v>
       </c>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="35"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="32"/>
       <c r="AZ26" s="20"/>
       <c r="BA26" s="20"/>
       <c r="BB26" s="20"/>
@@ -7598,7 +7624,7 @@
       <c r="CN26" s="20"/>
       <c r="CO26" s="21"/>
     </row>
-    <row r="27" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -7649,13 +7675,15 @@
       <c r="AW27" s="20"/>
       <c r="AX27" s="20"/>
       <c r="AY27" s="20"/>
-      <c r="AZ27" s="20"/>
-      <c r="BA27" s="20"/>
-      <c r="BB27" s="20"/>
-      <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
-      <c r="BE27" s="20"/>
-      <c r="BF27" s="20"/>
+      <c r="AZ27" s="30">
+        <v>8</v>
+      </c>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="32"/>
       <c r="BG27" s="20"/>
       <c r="BH27" s="20"/>
       <c r="BI27" s="20"/>
@@ -7692,7 +7720,7 @@
       <c r="CN27" s="20"/>
       <c r="CO27" s="21"/>
     </row>
-    <row r="28" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -7750,13 +7778,15 @@
       <c r="BD28" s="20"/>
       <c r="BE28" s="20"/>
       <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
+      <c r="BG28" s="30">
+        <v>9</v>
+      </c>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="32"/>
       <c r="BN28" s="20"/>
       <c r="BO28" s="20"/>
       <c r="BP28" s="20"/>
@@ -7786,7 +7816,7 @@
       <c r="CN28" s="20"/>
       <c r="CO28" s="21"/>
     </row>
-    <row r="29" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -7851,13 +7881,15 @@
       <c r="BK29" s="20"/>
       <c r="BL29" s="20"/>
       <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
+      <c r="BN29" s="30">
+        <v>10</v>
+      </c>
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="32"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="20"/>
       <c r="BW29" s="20"/>
@@ -8069,7 +8101,12 @@
       <c r="CO31" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8082,18 +8119,16 @@
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
     <mergeCell ref="AS10:AY10"/>
     <mergeCell ref="AZ11:BF11"/>
     <mergeCell ref="BG12:BM12"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AZ27:BF27"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="BN29:BT29"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Action</t>
   </si>
@@ -173,10 +173,10 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t>User Acceptance Test</t>
+    <t>Each case name, description and admisson notes is separated to different &lt;div&gt;</t>
   </si>
   <si>
-    <t>Each case name, description and admisson notes is separated to different &lt;div&gt;</t>
+    <t>UT3</t>
   </si>
 </sst>
 </file>
@@ -540,6 +540,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,15 +550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,8 +564,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1436,11 +1436,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1211920400"/>
-        <c:axId val="-1211929648"/>
+        <c:axId val="1293374656"/>
+        <c:axId val="1293377920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1211920400"/>
+        <c:axId val="1293374656"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1483,7 +1483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211929648"/>
+        <c:crossAx val="1293377920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1211929648"/>
+        <c:axId val="1293377920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1543,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211920400"/>
+        <c:crossAx val="1293374656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1669,7 +1669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2004,11 +2003,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1211919312"/>
-        <c:axId val="-1211918224"/>
+        <c:axId val="1059794000"/>
+        <c:axId val="1059797808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1211919312"/>
+        <c:axId val="1059794000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2051,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211918224"/>
+        <c:crossAx val="1059797808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2059,7 +2058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1211918224"/>
+        <c:axId val="1059797808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2111,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211919312"/>
+        <c:crossAx val="1059794000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2126,7 +2125,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2400,11 +2398,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1211917680"/>
-        <c:axId val="-1211927472"/>
+        <c:axId val="1339406752"/>
+        <c:axId val="1339404576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1211917680"/>
+        <c:axId val="1339406752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211927472"/>
+        <c:crossAx val="1339404576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1211927472"/>
+        <c:axId val="1339404576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211917680"/>
+        <c:crossAx val="1339406752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4632,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="G13:H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,8 +4860,8 @@
       <c r="I8" s="10">
         <v>15</v>
       </c>
-      <c r="J8" s="40" t="s">
-        <v>46</v>
+      <c r="J8" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -4894,7 +4892,7 @@
         <v>42003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H13" si="5">G9+13</f>
+        <f t="shared" ref="H9:H14" si="5">G9+13</f>
         <v>42016</v>
       </c>
       <c r="I9" s="10">
@@ -5056,7 +5054,9 @@
       <c r="J13" s="11">
         <v>1</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5076,15 +5076,25 @@
         <v>14</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" ref="G14" si="6">H13+1</f>
+        <v>42072</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="5"/>
+        <v>42085</v>
+      </c>
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5228,100 +5238,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="37"/>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="37"/>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="37"/>
-      <c r="CN2" s="37"/>
-      <c r="CO2" s="38"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
+      <c r="CE2" s="35"/>
+      <c r="CF2" s="35"/>
+      <c r="CG2" s="35"/>
+      <c r="CH2" s="35"/>
+      <c r="CI2" s="35"/>
+      <c r="CJ2" s="35"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="35"/>
+      <c r="CN2" s="35"/>
+      <c r="CO2" s="36"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
@@ -5419,22 +5429,22 @@
     </row>
     <row r="4" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -5522,15 +5532,15 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="30">
+      <c r="J5" s="31">
         <v>2</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -5625,15 +5635,15 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="30">
+      <c r="Q6" s="31">
         <v>3</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -5728,15 +5738,15 @@
       <c r="U7" s="22"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="30">
+      <c r="X7" s="31">
         <v>4</v>
       </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="33"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
@@ -5831,15 +5841,15 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="30">
+      <c r="AE8" s="31">
         <v>5</v>
       </c>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="33"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
@@ -5934,15 +5944,15 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="30">
+      <c r="AL9" s="31">
         <v>6</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="33"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23"/>
@@ -6037,15 +6047,15 @@
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
-      <c r="AS10" s="30">
+      <c r="AS10" s="31">
         <v>7</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="33"/>
       <c r="AZ10" s="20"/>
       <c r="BA10" s="20"/>
       <c r="BB10" s="20"/>
@@ -6081,20 +6091,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="34"/>
-      <c r="CJ10" s="34"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="34"/>
-      <c r="CM10" s="34"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="33"/>
-      <c r="CQ10" s="33"/>
-      <c r="CR10" s="33"/>
-      <c r="CS10" s="33"/>
-      <c r="CT10" s="33"/>
-      <c r="CU10" s="33"/>
-      <c r="CV10" s="33"/>
+      <c r="CI10" s="39"/>
+      <c r="CJ10" s="39"/>
+      <c r="CK10" s="39"/>
+      <c r="CL10" s="39"/>
+      <c r="CM10" s="39"/>
+      <c r="CN10" s="39"/>
+      <c r="CO10" s="40"/>
+      <c r="CP10" s="38"/>
+      <c r="CQ10" s="38"/>
+      <c r="CR10" s="38"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="38"/>
+      <c r="CU10" s="38"/>
+      <c r="CV10" s="38"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6147,15 +6157,15 @@
       <c r="AW11" s="20"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="20"/>
-      <c r="AZ11" s="30">
+      <c r="AZ11" s="31">
         <v>8</v>
       </c>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="33"/>
       <c r="BG11" s="20"/>
       <c r="BH11" s="20"/>
       <c r="BI11" s="20"/>
@@ -6250,15 +6260,15 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
       <c r="BF12" s="20"/>
-      <c r="BG12" s="30">
+      <c r="BG12" s="31">
         <v>9</v>
       </c>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="33"/>
       <c r="BN12" s="20"/>
       <c r="BO12" s="20"/>
       <c r="BP12" s="20"/>
@@ -6353,15 +6363,15 @@
       <c r="BK13" s="20"/>
       <c r="BL13" s="20"/>
       <c r="BM13" s="20"/>
-      <c r="BN13" s="30">
+      <c r="BN13" s="31">
         <v>10</v>
       </c>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="31"/>
-      <c r="BT13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="33"/>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
       <c r="BW13" s="20"/>
@@ -6456,15 +6466,15 @@
       <c r="BR14" s="20"/>
       <c r="BS14" s="20"/>
       <c r="BT14" s="20"/>
-      <c r="BU14" s="30">
+      <c r="BU14" s="31">
         <v>11</v>
       </c>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="31"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="31"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="32"/>
+      <c r="BX14" s="32"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="32"/>
+      <c r="CA14" s="33"/>
       <c r="CB14" s="20"/>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
@@ -6763,100 +6773,100 @@
       <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="37"/>
-      <c r="BU18" s="37"/>
-      <c r="BV18" s="37"/>
-      <c r="BW18" s="37"/>
-      <c r="BX18" s="37"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="37"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
-      <c r="CL18" s="37"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="35"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
+      <c r="BU18" s="35"/>
+      <c r="BV18" s="35"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="35"/>
+      <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="35"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="36"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
@@ -6954,22 +6964,22 @@
     </row>
     <row r="20" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
-      <c r="C20" s="30">
+      <c r="C20" s="31">
         <v>1</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
@@ -7057,15 +7067,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="30">
+      <c r="J21" s="31">
         <v>2</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
@@ -7160,15 +7170,15 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="30">
+      <c r="Q22" s="31">
         <v>3</v>
       </c>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -7263,15 +7273,15 @@
       <c r="U23" s="22"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="30">
+      <c r="X23" s="31">
         <v>4</v>
       </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="33"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
@@ -7366,15 +7376,15 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="30">
+      <c r="AE24" s="31">
         <v>5</v>
       </c>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="33"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
@@ -7469,15 +7479,15 @@
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
-      <c r="AL25" s="30">
+      <c r="AL25" s="31">
         <v>6</v>
       </c>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="33"/>
       <c r="AS25" s="23"/>
       <c r="AT25" s="23"/>
       <c r="AU25" s="23"/>
@@ -7572,15 +7582,15 @@
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
-      <c r="AS26" s="30">
+      <c r="AS26" s="31">
         <v>7</v>
       </c>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="33"/>
       <c r="AZ26" s="20"/>
       <c r="BA26" s="20"/>
       <c r="BB26" s="20"/>
@@ -7675,15 +7685,15 @@
       <c r="AW27" s="20"/>
       <c r="AX27" s="20"/>
       <c r="AY27" s="20"/>
-      <c r="AZ27" s="30">
+      <c r="AZ27" s="31">
         <v>8</v>
       </c>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="33"/>
       <c r="BG27" s="20"/>
       <c r="BH27" s="20"/>
       <c r="BI27" s="20"/>
@@ -7778,15 +7788,15 @@
       <c r="BD28" s="20"/>
       <c r="BE28" s="20"/>
       <c r="BF28" s="20"/>
-      <c r="BG28" s="30">
+      <c r="BG28" s="31">
         <v>9</v>
       </c>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="31"/>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-      <c r="BM28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="32"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="33"/>
       <c r="BN28" s="20"/>
       <c r="BO28" s="20"/>
       <c r="BP28" s="20"/>
@@ -7881,15 +7891,15 @@
       <c r="BK29" s="20"/>
       <c r="BL29" s="20"/>
       <c r="BM29" s="20"/>
-      <c r="BN29" s="30">
+      <c r="BN29" s="31">
         <v>10</v>
       </c>
-      <c r="BO29" s="31"/>
-      <c r="BP29" s="31"/>
-      <c r="BQ29" s="31"/>
-      <c r="BR29" s="31"/>
-      <c r="BS29" s="31"/>
-      <c r="BT29" s="32"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="32"/>
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="33"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="20"/>
       <c r="BW29" s="20"/>
@@ -8102,11 +8112,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="AZ27:BF27"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="BN29:BT29"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8122,13 +8132,13 @@
     <mergeCell ref="AS10:AY10"/>
     <mergeCell ref="AZ11:BF11"/>
     <mergeCell ref="BG12:BM12"/>
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
     <mergeCell ref="AE24:AK24"/>
     <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AZ27:BF27"/>
-    <mergeCell ref="BG28:BM28"/>
-    <mergeCell ref="BN29:BT29"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Action</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Deployment</t>
-  </si>
-  <si>
-    <t>Each case name, description and admisson notes is separated to different &lt;div&gt;</t>
   </si>
   <si>
     <t>UT3</t>
@@ -477,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,9 +537,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,6 +544,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,15 +565,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1436,11 +1430,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1293374656"/>
-        <c:axId val="1293377920"/>
+        <c:axId val="93207456"/>
+        <c:axId val="93208000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1293374656"/>
+        <c:axId val="93207456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1483,7 +1477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1293377920"/>
+        <c:crossAx val="93208000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1293377920"/>
+        <c:axId val="93208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1543,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1293374656"/>
+        <c:crossAx val="93207456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1904,13 +1898,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -2003,11 +1997,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1059794000"/>
-        <c:axId val="1059797808"/>
+        <c:axId val="93213440"/>
+        <c:axId val="93208544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1059794000"/>
+        <c:axId val="93213440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2050,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059797808"/>
+        <c:crossAx val="93208544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2058,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1059797808"/>
+        <c:axId val="93208544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2110,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059794000"/>
+        <c:crossAx val="93213440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2367,7 +2361,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -2398,11 +2392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1339406752"/>
-        <c:axId val="1339404576"/>
+        <c:axId val="93210176"/>
+        <c:axId val="93210720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1339406752"/>
+        <c:axId val="93210176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339404576"/>
+        <c:crossAx val="93210720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2452,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339404576"/>
+        <c:axId val="93210720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339406752"/>
+        <c:crossAx val="93210176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4630,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4860,8 +4854,9 @@
       <c r="I8" s="10">
         <v>15</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>45</v>
+      <c r="J8" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -4938,6 +4933,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
@@ -4976,6 +4972,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
@@ -5011,9 +5008,10 @@
         <v>42057</v>
       </c>
       <c r="I12" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J12" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -5049,9 +5047,10 @@
         <v>42071</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J13" s="11">
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -5076,21 +5075,22 @@
         <v>14</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ref="G14" si="6">H13+1</f>
         <v>42072</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="5"/>
-        <v>42085</v>
+        <f>G14+13+1</f>
+        <v>42086</v>
       </c>
       <c r="I14" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J14" s="11">
-        <v>1</v>
+        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -5116,7 +5116,9 @@
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="12">
+        <v>42087</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
         <v>1</v>
@@ -5238,100 +5240,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
-      <c r="CE2" s="35"/>
-      <c r="CF2" s="35"/>
-      <c r="CG2" s="35"/>
-      <c r="CH2" s="35"/>
-      <c r="CI2" s="35"/>
-      <c r="CJ2" s="35"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="35"/>
-      <c r="CN2" s="35"/>
-      <c r="CO2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="38"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
@@ -5429,22 +5431,22 @@
     </row>
     <row r="4" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -5532,15 +5534,15 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <v>2</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -5635,15 +5637,15 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <v>3</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -5738,15 +5740,15 @@
       <c r="U7" s="22"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="31">
+      <c r="X7" s="30">
         <v>4</v>
       </c>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="32"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
@@ -5841,15 +5843,15 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="31">
+      <c r="AE8" s="30">
         <v>5</v>
       </c>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="33"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
@@ -5944,15 +5946,15 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="31">
+      <c r="AL9" s="30">
         <v>6</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="32"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23"/>
@@ -6047,15 +6049,15 @@
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
-      <c r="AS10" s="31">
+      <c r="AS10" s="30">
         <v>7</v>
       </c>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
       <c r="AZ10" s="20"/>
       <c r="BA10" s="20"/>
       <c r="BB10" s="20"/>
@@ -6091,20 +6093,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="39"/>
-      <c r="CJ10" s="39"/>
-      <c r="CK10" s="39"/>
-      <c r="CL10" s="39"/>
-      <c r="CM10" s="39"/>
-      <c r="CN10" s="39"/>
-      <c r="CO10" s="40"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
-      <c r="CV10" s="38"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="34"/>
+      <c r="CK10" s="34"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="34"/>
+      <c r="CN10" s="34"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6157,15 +6159,15 @@
       <c r="AW11" s="20"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="20"/>
-      <c r="AZ11" s="31">
+      <c r="AZ11" s="30">
         <v>8</v>
       </c>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="33"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="32"/>
       <c r="BG11" s="20"/>
       <c r="BH11" s="20"/>
       <c r="BI11" s="20"/>
@@ -6260,15 +6262,15 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
       <c r="BF12" s="20"/>
-      <c r="BG12" s="31">
+      <c r="BG12" s="30">
         <v>9</v>
       </c>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="33"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="32"/>
       <c r="BN12" s="20"/>
       <c r="BO12" s="20"/>
       <c r="BP12" s="20"/>
@@ -6363,15 +6365,15 @@
       <c r="BK13" s="20"/>
       <c r="BL13" s="20"/>
       <c r="BM13" s="20"/>
-      <c r="BN13" s="31">
+      <c r="BN13" s="30">
         <v>10</v>
       </c>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="32"/>
-      <c r="BT13" s="33"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="32"/>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
       <c r="BW13" s="20"/>
@@ -6466,15 +6468,15 @@
       <c r="BR14" s="20"/>
       <c r="BS14" s="20"/>
       <c r="BT14" s="20"/>
-      <c r="BU14" s="31">
+      <c r="BU14" s="30">
         <v>11</v>
       </c>
-      <c r="BV14" s="32"/>
-      <c r="BW14" s="32"/>
-      <c r="BX14" s="32"/>
-      <c r="BY14" s="32"/>
-      <c r="BZ14" s="32"/>
-      <c r="CA14" s="33"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="32"/>
       <c r="CB14" s="20"/>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
@@ -6773,100 +6775,100 @@
       <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="35"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="35"/>
-      <c r="BL18" s="35"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="35"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="35"/>
-      <c r="BQ18" s="35"/>
-      <c r="BR18" s="35"/>
-      <c r="BS18" s="35"/>
-      <c r="BT18" s="35"/>
-      <c r="BU18" s="35"/>
-      <c r="BV18" s="35"/>
-      <c r="BW18" s="35"/>
-      <c r="BX18" s="35"/>
-      <c r="BY18" s="35"/>
-      <c r="BZ18" s="35"/>
-      <c r="CA18" s="35"/>
-      <c r="CB18" s="35"/>
-      <c r="CC18" s="35"/>
-      <c r="CD18" s="35"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="35"/>
-      <c r="CG18" s="35"/>
-      <c r="CH18" s="35"/>
-      <c r="CI18" s="35"/>
-      <c r="CJ18" s="35"/>
-      <c r="CK18" s="35"/>
-      <c r="CL18" s="35"/>
-      <c r="CM18" s="35"/>
-      <c r="CN18" s="35"/>
-      <c r="CO18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="38"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
@@ -6964,22 +6966,22 @@
     </row>
     <row r="20" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
-      <c r="C20" s="31">
+      <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
@@ -7067,15 +7069,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <v>2</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
@@ -7170,15 +7172,15 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="31">
+      <c r="Q22" s="30">
         <v>3</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="33"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -7273,15 +7275,15 @@
       <c r="U23" s="22"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="31">
+      <c r="X23" s="30">
         <v>4</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="32"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
@@ -7376,15 +7378,15 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="31">
+      <c r="AE24" s="30">
         <v>5</v>
       </c>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="33"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="32"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
@@ -7479,15 +7481,15 @@
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
-      <c r="AL25" s="31">
+      <c r="AL25" s="30">
         <v>6</v>
       </c>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="33"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="32"/>
       <c r="AS25" s="23"/>
       <c r="AT25" s="23"/>
       <c r="AU25" s="23"/>
@@ -7582,15 +7584,15 @@
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
-      <c r="AS26" s="31">
+      <c r="AS26" s="30">
         <v>7</v>
       </c>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="33"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="32"/>
       <c r="AZ26" s="20"/>
       <c r="BA26" s="20"/>
       <c r="BB26" s="20"/>
@@ -7685,15 +7687,15 @@
       <c r="AW27" s="20"/>
       <c r="AX27" s="20"/>
       <c r="AY27" s="20"/>
-      <c r="AZ27" s="31">
+      <c r="AZ27" s="30">
         <v>8</v>
       </c>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="33"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="32"/>
       <c r="BG27" s="20"/>
       <c r="BH27" s="20"/>
       <c r="BI27" s="20"/>
@@ -7788,15 +7790,15 @@
       <c r="BD28" s="20"/>
       <c r="BE28" s="20"/>
       <c r="BF28" s="20"/>
-      <c r="BG28" s="31">
+      <c r="BG28" s="30">
         <v>9</v>
       </c>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="33"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="32"/>
       <c r="BN28" s="20"/>
       <c r="BO28" s="20"/>
       <c r="BP28" s="20"/>
@@ -7891,15 +7893,15 @@
       <c r="BK29" s="20"/>
       <c r="BL29" s="20"/>
       <c r="BM29" s="20"/>
-      <c r="BN29" s="31">
+      <c r="BN29" s="30">
         <v>10</v>
       </c>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="32"/>
-      <c r="BS29" s="32"/>
-      <c r="BT29" s="33"/>
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="32"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="20"/>
       <c r="BW29" s="20"/>
@@ -8112,11 +8114,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AZ27:BF27"/>
-    <mergeCell ref="BG28:BM28"/>
-    <mergeCell ref="BN29:BT29"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8133,12 +8136,11 @@
     <mergeCell ref="AZ11:BF11"/>
     <mergeCell ref="BG12:BM12"/>
     <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AZ27:BF27"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="BN29:BT29"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -546,15 +546,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -565,6 +556,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1430,11 +1430,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="93207456"/>
-        <c:axId val="93208000"/>
+        <c:axId val="-585062256"/>
+        <c:axId val="-585061712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93207456"/>
+        <c:axId val="-585062256"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1477,7 +1477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93208000"/>
+        <c:crossAx val="-585061712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93208000"/>
+        <c:axId val="-585061712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1537,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93207456"/>
+        <c:crossAx val="-585062256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1907,7 +1907,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -1997,11 +1997,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="93213440"/>
-        <c:axId val="93208544"/>
+        <c:axId val="-721090096"/>
+        <c:axId val="-721089552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93213440"/>
+        <c:axId val="-721090096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2044,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93208544"/>
+        <c:crossAx val="-721089552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2052,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93208544"/>
+        <c:axId val="-721089552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2104,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93213440"/>
+        <c:crossAx val="-721090096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2227,7 +2227,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2323,7 +2322,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2392,11 +2390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="93210176"/>
-        <c:axId val="93210720"/>
+        <c:axId val="-438279536"/>
+        <c:axId val="-438278992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93210176"/>
+        <c:axId val="-438279536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93210720"/>
+        <c:crossAx val="-438278992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2446,7 +2444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93210720"/>
+        <c:axId val="-438278992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93210176"/>
+        <c:crossAx val="-438279536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4624,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,12 +4881,11 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G12" si="4">H8+1</f>
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H14" si="5">G9+13</f>
-        <v>42016</v>
+        <f t="shared" ref="H9:H13" si="4">G9+13</f>
+        <v>42015</v>
       </c>
       <c r="I9" s="10">
         <v>14</v>
@@ -4922,12 +4919,12 @@
         <v>42</v>
       </c>
       <c r="G10" s="12">
+        <f t="shared" ref="G9:G12" si="5">H9+1</f>
+        <v>42016</v>
+      </c>
+      <c r="H10" s="12">
         <f t="shared" si="4"/>
-        <v>42017</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="5"/>
-        <v>42030</v>
+        <v>42029</v>
       </c>
       <c r="I10" s="10">
         <v>14</v>
@@ -4961,12 +4958,12 @@
         <v>43</v>
       </c>
       <c r="G11" s="12">
+        <f t="shared" si="5"/>
+        <v>42030</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="4"/>
-        <v>42031</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="5"/>
-        <v>42044</v>
+        <v>42043</v>
       </c>
       <c r="I11" s="10">
         <v>14</v>
@@ -5000,11 +4997,11 @@
         <v>29</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="4"/>
-        <v>42045</v>
+        <f t="shared" si="5"/>
+        <v>42044</v>
       </c>
       <c r="H12" s="12">
-        <f>G12+12</f>
+        <f>G12+13</f>
         <v>42057</v>
       </c>
       <c r="I12" s="10">
@@ -5043,7 +5040,7 @@
         <v>42058</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42071</v>
       </c>
       <c r="I13" s="10">
@@ -5119,9 +5116,12 @@
       <c r="G15" s="12">
         <v>42087</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="12">
+        <f>Table1[[#This Row],[Actual Start Date]]+13</f>
+        <v>42100</v>
+      </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="10"/>
@@ -5240,100 +5240,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="37"/>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="37"/>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="37"/>
-      <c r="CN2" s="37"/>
-      <c r="CO2" s="38"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="35"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
@@ -5440,13 +5440,13 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -6093,20 +6093,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="34"/>
-      <c r="CJ10" s="34"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="34"/>
-      <c r="CM10" s="34"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="33"/>
-      <c r="CQ10" s="33"/>
-      <c r="CR10" s="33"/>
-      <c r="CS10" s="33"/>
-      <c r="CT10" s="33"/>
-      <c r="CU10" s="33"/>
-      <c r="CV10" s="33"/>
+      <c r="CI10" s="38"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="38"/>
+      <c r="CL10" s="38"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="38"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="37"/>
+      <c r="CQ10" s="37"/>
+      <c r="CR10" s="37"/>
+      <c r="CS10" s="37"/>
+      <c r="CT10" s="37"/>
+      <c r="CU10" s="37"/>
+      <c r="CV10" s="37"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6775,100 +6775,100 @@
       <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="37"/>
-      <c r="BU18" s="37"/>
-      <c r="BV18" s="37"/>
-      <c r="BW18" s="37"/>
-      <c r="BX18" s="37"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="37"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
-      <c r="CL18" s="37"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="34"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="34"/>
+      <c r="BV18" s="34"/>
+      <c r="BW18" s="34"/>
+      <c r="BX18" s="34"/>
+      <c r="BY18" s="34"/>
+      <c r="BZ18" s="34"/>
+      <c r="CA18" s="34"/>
+      <c r="CB18" s="34"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="34"/>
+      <c r="CE18" s="34"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="34"/>
+      <c r="CK18" s="34"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="34"/>
+      <c r="CN18" s="34"/>
+      <c r="CO18" s="35"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
@@ -6975,13 +6975,13 @@
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
@@ -8114,12 +8114,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AZ27:BF27"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="BN29:BT29"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8136,11 +8135,12 @@
     <mergeCell ref="AZ11:BF11"/>
     <mergeCell ref="BG12:BM12"/>
     <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AZ27:BF27"/>
-    <mergeCell ref="BG28:BM28"/>
-    <mergeCell ref="BN29:BT29"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Schedule Metrics/Schedule Metrics Tracking.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Action</t>
   </si>
@@ -131,16 +131,7 @@
     <t>Iteration 13</t>
   </si>
   <si>
-    <t>Iteration 14</t>
-  </si>
-  <si>
     <t>Poster</t>
-  </si>
-  <si>
-    <t>Iteration 15</t>
-  </si>
-  <si>
-    <t>Final</t>
   </si>
   <si>
     <t>Duration (Days)</t>
@@ -174,6 +165,12 @@
   </si>
   <si>
     <t>UT3</t>
+  </si>
+  <si>
+    <t>Delayed due to complexity, we took longer time to figure out that function.</t>
+  </si>
+  <si>
+    <t>Finals</t>
   </si>
 </sst>
 </file>
@@ -546,6 +543,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -556,15 +562,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1153,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$C$4:$C$18</c:f>
+              <c:f>'Schedule Metrics Tracking'!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>41904</c:v>
                 </c:pt>
@@ -1198,12 +1195,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,10 +1293,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$E$4:$E$18</c:f>
+              <c:f>'Schedule Metrics Tracking'!$E$4:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1343,12 +1334,6 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -1430,11 +1415,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-585062256"/>
-        <c:axId val="-585061712"/>
+        <c:axId val="-750339344"/>
+        <c:axId val="-750348592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-585062256"/>
+        <c:axId val="-750339344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1477,7 +1462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-585061712"/>
+        <c:crossAx val="-750348592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-585061712"/>
+        <c:axId val="-750348592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -1537,7 +1522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-585062256"/>
+        <c:crossAx val="-750339344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1723,10 +1708,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$C$4:$C$18</c:f>
+              <c:f>'Schedule Metrics Tracking'!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>41904</c:v>
                 </c:pt>
@@ -1765,12 +1750,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,10 +1848,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Schedule Metrics Tracking'!$I$4:$I$18</c:f>
+              <c:f>'Schedule Metrics Tracking'!$I$4:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1910,12 +1889,6 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1997,11 +1970,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-721090096"/>
-        <c:axId val="-721089552"/>
+        <c:axId val="-750344784"/>
+        <c:axId val="-750343152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-721090096"/>
+        <c:axId val="-750344784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2044,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-721089552"/>
+        <c:crossAx val="-750343152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2052,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-721089552"/>
+        <c:axId val="-750343152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41904"/>
@@ -2104,7 +2077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-721090096"/>
+        <c:crossAx val="-750344784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -2227,6 +2200,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2322,6 +2296,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2390,11 +2365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-438279536"/>
-        <c:axId val="-438278992"/>
+        <c:axId val="-750342608"/>
+        <c:axId val="-750342064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-438279536"/>
+        <c:axId val="-750342608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-438278992"/>
+        <c:crossAx val="-750342064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2444,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-438278992"/>
+        <c:axId val="-750342064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-438279536"/>
+        <c:crossAx val="-750342608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4135,13 +4110,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>16489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4167,13 +4142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4199,13 +4174,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>84753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>149370</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>21648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4229,13 +4204,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>86592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4306,8 +4281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:L18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B3:L18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:L16" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B3:L16"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Iteration" dataDxfId="10"/>
     <tableColumn id="2" name="Planned Start Date" dataDxfId="9">
@@ -4620,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4653,7 +4628,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
@@ -4665,16 +4640,16 @@
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4720,7 +4695,7 @@
         <v>41918</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D18" si="0">C5+13</f>
+        <f t="shared" ref="D5:D16" si="0">C5+13</f>
         <v>41931</v>
       </c>
       <c r="E5" s="10">
@@ -4753,7 +4728,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12">
-        <f t="shared" ref="C6:C18" si="2">D5+1</f>
+        <f t="shared" ref="C6:C16" si="2">D5+1</f>
         <v>41932</v>
       </c>
       <c r="D6" s="12">
@@ -4860,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4916,10 +4891,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ref="G9:G12" si="5">H9+1</f>
+        <f t="shared" ref="G10:G12" si="5">H9+1</f>
         <v>42016</v>
       </c>
       <c r="H10" s="12">
@@ -4955,7 +4930,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="5"/>
@@ -5033,7 +5008,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12">
         <f>H12+1</f>
@@ -5072,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ref="G14" si="6">H13+1</f>
@@ -5092,7 +5067,9 @@
       <c r="K14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
@@ -5111,7 +5088,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="12">
         <v>42087</v>
@@ -5143,7 +5120,9 @@
         <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
         <v>14</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10">
@@ -5152,66 +5131,6 @@
       <c r="J16" s="11"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>42114</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>42127</v>
-      </c>
-      <c r="E17" s="10">
-        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
-        <v>14</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" si="2"/>
-        <v>42128</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>42141</v>
-      </c>
-      <c r="E18" s="10">
-        <f>Table1[[#This Row],[Planned End Date]]-Table1[[#This Row],[Planned Start Date]]+1</f>
-        <v>14</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
-        <f>Table1[[#This Row],[Duration (Days)]]/Table1[[#This Row],[Actual Duration (Days)]]</f>
-        <v>14</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5240,100 +5159,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:100" ht="36.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="34"/>
-      <c r="BN2" s="34"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="34"/>
-      <c r="BZ2" s="34"/>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="34"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="34"/>
-      <c r="CM2" s="34"/>
-      <c r="CN2" s="34"/>
-      <c r="CO2" s="35"/>
+      <c r="B2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="38"/>
     </row>
     <row r="3" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
@@ -5440,13 +5359,13 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -6093,20 +6012,20 @@
       <c r="CF10" s="20"/>
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
-      <c r="CL10" s="38"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="39"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="37"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="37"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="34"/>
+      <c r="CK10" s="34"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="34"/>
+      <c r="CN10" s="34"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
     </row>
     <row r="11" spans="2:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
@@ -6775,100 +6694,100 @@
       <c r="CO17" s="21"/>
     </row>
     <row r="18" spans="2:93" ht="36.75" x14ac:dyDescent="0.6">
-      <c r="B18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="34"/>
-      <c r="CA18" s="34"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="34"/>
-      <c r="CD18" s="34"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
-      <c r="CJ18" s="34"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="34"/>
-      <c r="CM18" s="34"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="35"/>
+      <c r="B18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="38"/>
     </row>
     <row r="19" spans="2:93" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
@@ -6975,13 +6894,13 @@
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
@@ -8114,11 +8033,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AZ27:BF27"/>
-    <mergeCell ref="BG28:BM28"/>
-    <mergeCell ref="BN29:BT29"/>
-    <mergeCell ref="CP10:CV10"/>
-    <mergeCell ref="CI10:CO10"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="BN13:BT13"/>
+    <mergeCell ref="BU14:CA14"/>
+    <mergeCell ref="B18:CO18"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL25:AR25"/>
     <mergeCell ref="B2:CO2"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q22:W22"/>
@@ -8135,12 +8055,11 @@
     <mergeCell ref="AZ11:BF11"/>
     <mergeCell ref="BG12:BM12"/>
     <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="BN13:BT13"/>
-    <mergeCell ref="BU14:CA14"/>
-    <mergeCell ref="B18:CO18"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AZ27:BF27"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="BN29:BT29"/>
+    <mergeCell ref="CP10:CV10"/>
+    <mergeCell ref="CI10:CO10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
